--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93A752F-E378-6147-BF81-7B23A749E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F76454-F4CC-0744-BD16-7A5A40DBC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -25,17 +25,16 @@
     <sheet name="SFRCost" sheetId="10" r:id="rId10"/>
     <sheet name="GCost" sheetId="6" r:id="rId11"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId12"/>
-    <sheet name="SR" sheetId="16" r:id="rId13"/>
-    <sheet name="NSR" sheetId="17" r:id="rId14"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId15"/>
-    <sheet name="RTEDCFG" sheetId="15" r:id="rId16"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId13"/>
+    <sheet name="SR" sheetId="16" r:id="rId14"/>
+    <sheet name="NSR" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="379">
   <si>
     <t>idx</t>
   </si>
@@ -895,9 +894,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>dt</t>
-  </si>
-  <si>
     <t>EDT1</t>
   </si>
   <si>
@@ -1129,9 +1125,6 @@
     <t>PV_39</t>
   </si>
   <si>
-    <t>RTEDCFG1</t>
-  </si>
-  <si>
     <t>1, 1, 1</t>
   </si>
   <si>
@@ -1172,22 +1165,21 @@
   </si>
   <si>
     <t>NSR1</t>
+  </si>
+  <si>
+    <t>NSR2</t>
+  </si>
+  <si>
+    <t>NSR3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1279,21 +1271,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1613,16 +1604,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1630,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>352</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>353</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1678,7 +1669,7 @@
         <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
         <v>261</v>
@@ -1695,7 +1686,7 @@
         <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
         <v>261</v>
@@ -1712,7 +1703,7 @@
         <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D4" t="s">
         <v>261</v>
@@ -1729,7 +1720,7 @@
         <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D5" t="s">
         <v>261</v>
@@ -1746,7 +1737,7 @@
         <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
         <v>261</v>
@@ -1763,7 +1754,7 @@
         <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D7" t="s">
         <v>261</v>
@@ -1780,7 +1771,7 @@
         <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D8" t="s">
         <v>261</v>
@@ -1797,7 +1788,7 @@
         <v>282</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D9" t="s">
         <v>261</v>
@@ -1814,7 +1805,7 @@
         <v>283</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
         <v>261</v>
@@ -1831,7 +1822,7 @@
         <v>284</v>
       </c>
       <c r="C11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" t="s">
         <v>261</v>
@@ -1841,7 +1832,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1906,7 +1897,7 @@
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1941,7 +1932,7 @@
         <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1976,7 +1967,7 @@
         <v>241</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2011,7 +2002,7 @@
         <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2046,7 +2037,7 @@
         <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -2081,7 +2072,7 @@
         <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -2116,7 +2107,7 @@
         <v>245</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -2151,7 +2142,7 @@
         <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -2186,7 +2177,7 @@
         <v>247</v>
       </c>
       <c r="E10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -2221,7 +2212,7 @@
         <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -2243,25 +2234,25 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2274,425 +2265,724 @@
       <c r="D1" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>251</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>252</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>253</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>256</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>257</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D13" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E13" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>326</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>315</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>327</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555DA4DC-13F2-134F-B8B2-A92CD209E2B3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2703,177 +2993,82 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E4" s="8">
         <v>0.1</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FEF0DA-AB8F-0444-8906-DEFEFC2CAD11}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2883,488 +3078,93 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FEF0DA-AB8F-0444-8906-DEFEFC2CAD11}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E13" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>310</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="E16" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E17" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>314</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E21" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>322</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="E22" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E23" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>326</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E24" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>328</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E25" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396C59AC-6247-9647-AF4E-4140A33E5886}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView zoomScale="171" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5</v>
+      <c r="B4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5874,13 +5674,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -6095,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E2">
         <v>1040</v>
@@ -6196,13 +5996,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E3">
         <v>725</v>
@@ -6297,13 +6097,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E4">
         <v>652</v>
@@ -6398,13 +6198,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E5">
         <v>508</v>
@@ -6499,13 +6299,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E6">
         <v>687</v>
@@ -6600,13 +6400,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E7">
         <v>580</v>
@@ -6701,13 +6501,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E8">
         <v>564</v>
@@ -6802,13 +6602,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E9">
         <v>865</v>
@@ -6903,13 +6703,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E10">
         <v>1100</v>
@@ -7000,7 +6800,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F76454-F4CC-0744-BD16-7A5A40DBC594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC80C5-94E8-1449-BFFC-3C65D8DEF3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="7420" windowWidth="21600" windowHeight="18940" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555DA4DC-13F2-134F-B8B2-A92CD209E2B3}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3026,7 +3026,7 @@
         <v>373</v>
       </c>
       <c r="E2" s="8">
-        <v>0.1</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>265</v>
@@ -3046,7 +3046,7 @@
         <v>374</v>
       </c>
       <c r="E3" s="8">
-        <v>0.1</v>
+        <v>2.46</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>266</v>
@@ -3066,7 +3066,7 @@
         <v>375</v>
       </c>
       <c r="E4" s="8">
-        <v>0.1</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>267</v>
@@ -3121,7 +3121,7 @@
         <v>376</v>
       </c>
       <c r="E2" s="8">
-        <v>0.1</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>265</v>
@@ -3141,7 +3141,7 @@
         <v>377</v>
       </c>
       <c r="E3" s="8">
-        <v>0.1</v>
+        <v>2.46</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>266</v>
@@ -3161,7 +3161,7 @@
         <v>378</v>
       </c>
       <c r="E4" s="8">
-        <v>0.1</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>267</v>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7055DA3E-018D-EF4A-B168-F81B01721741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A35B769-7038-344F-8C34-2391205B9F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="6320" windowWidth="21600" windowHeight="18940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,13 +21,16 @@
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="Region" sheetId="8" r:id="rId8"/>
-    <sheet name="SFR" sheetId="9" r:id="rId9"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId10"/>
-    <sheet name="GCost" sheetId="6" r:id="rId11"/>
-    <sheet name="EDTSlot" sheetId="12" r:id="rId12"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId13"/>
-    <sheet name="SR" sheetId="18" r:id="rId14"/>
-    <sheet name="NSR" sheetId="19" r:id="rId15"/>
+    <sheet name="GCost" sheetId="6" r:id="rId9"/>
+    <sheet name="EDTSlot" sheetId="12" r:id="rId10"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId11"/>
+    <sheet name="DCost" sheetId="22" r:id="rId12"/>
+    <sheet name="SFR" sheetId="9" r:id="rId13"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId14"/>
+    <sheet name="SR" sheetId="18" r:id="rId15"/>
+    <sheet name="SRCost" sheetId="20" r:id="rId16"/>
+    <sheet name="NSR" sheetId="19" r:id="rId17"/>
+    <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="436">
   <si>
     <t>idx</t>
   </si>
@@ -856,36 +859,6 @@
     <t>crd</t>
   </si>
   <si>
-    <t>RCOST_1</t>
-  </si>
-  <si>
-    <t>RCOST_2</t>
-  </si>
-  <si>
-    <t>RCOST_3</t>
-  </si>
-  <si>
-    <t>RCOST_4</t>
-  </si>
-  <si>
-    <t>RCOST_5</t>
-  </si>
-  <si>
-    <t>RCOST_6</t>
-  </si>
-  <si>
-    <t>RCOST_7</t>
-  </si>
-  <si>
-    <t>RCOST_8</t>
-  </si>
-  <si>
-    <t>RCOST_9</t>
-  </si>
-  <si>
-    <t>RCOST_10</t>
-  </si>
-  <si>
     <t>sd</t>
   </si>
   <si>
@@ -928,6 +901,411 @@
     <t>UCT7</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>EDT7</t>
+  </si>
+  <si>
+    <t>EDT8</t>
+  </si>
+  <si>
+    <t>EDT9</t>
+  </si>
+  <si>
+    <t>EDT10</t>
+  </si>
+  <si>
+    <t>EDT11</t>
+  </si>
+  <si>
+    <t>EDT12</t>
+  </si>
+  <si>
+    <t>EDT13</t>
+  </si>
+  <si>
+    <t>EDT14</t>
+  </si>
+  <si>
+    <t>EDT15</t>
+  </si>
+  <si>
+    <t>EDT16</t>
+  </si>
+  <si>
+    <t>EDT17</t>
+  </si>
+  <si>
+    <t>EDT18</t>
+  </si>
+  <si>
+    <t>EDT19</t>
+  </si>
+  <si>
+    <t>EDT20</t>
+  </si>
+  <si>
+    <t>EDT21</t>
+  </si>
+  <si>
+    <t>EDT22</t>
+  </si>
+  <si>
+    <t>EDT23</t>
+  </si>
+  <si>
+    <t>EDT24</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Slack_31</t>
+  </si>
+  <si>
+    <t>PV_30</t>
+  </si>
+  <si>
+    <t>PV_32</t>
+  </si>
+  <si>
+    <t>PV_33</t>
+  </si>
+  <si>
+    <t>PV_34</t>
+  </si>
+  <si>
+    <t>PV_35</t>
+  </si>
+  <si>
+    <t>PV_36</t>
+  </si>
+  <si>
+    <t>PV_37</t>
+  </si>
+  <si>
+    <t>PV_38</t>
+  </si>
+  <si>
+    <t>PV_39</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>SR1</t>
+  </si>
+  <si>
+    <t>SR2</t>
+  </si>
+  <si>
+    <t>NSR1</t>
+  </si>
+  <si>
+    <t>NSR2</t>
+  </si>
+  <si>
+    <t>1, 0</t>
+  </si>
+  <si>
+    <t>0.641, 0</t>
+  </si>
+  <si>
+    <t>0.634, 0</t>
+  </si>
+  <si>
+    <t>0.623, 0</t>
+  </si>
+  <si>
+    <t>0.615, 0</t>
+  </si>
+  <si>
+    <t>0.62, 0</t>
+  </si>
+  <si>
+    <t>0.665, 0</t>
+  </si>
+  <si>
+    <t>0.713, 0</t>
+  </si>
+  <si>
+    <t>0.728, 0</t>
+  </si>
+  <si>
+    <t>0.746, 0</t>
+  </si>
+  <si>
+    <t>0.776, 0</t>
+  </si>
+  <si>
+    <t>0.808, 0</t>
+  </si>
+  <si>
+    <t>0.835, 0</t>
+  </si>
+  <si>
+    <t>0.86, 0</t>
+  </si>
+  <si>
+    <t>0.879, 0</t>
+  </si>
+  <si>
+    <t>0.922, 0</t>
+  </si>
+  <si>
+    <t>0.954, 0</t>
+  </si>
+  <si>
+    <t>0.996, 0</t>
+  </si>
+  <si>
+    <t>0.986, 0</t>
+  </si>
+  <si>
+    <t>0.949, 0</t>
+  </si>
+  <si>
+    <t>0.901, 0</t>
+  </si>
+  <si>
+    <t>0.823, 0</t>
+  </si>
+  <si>
+    <t>0.737, 0</t>
+  </si>
+  <si>
+    <t>SFR1</t>
+  </si>
+  <si>
+    <t>SFRC_1</t>
+  </si>
+  <si>
+    <t>SFRC_2</t>
+  </si>
+  <si>
+    <t>SFRC_3</t>
+  </si>
+  <si>
+    <t>SFRC_4</t>
+  </si>
+  <si>
+    <t>SFRC_5</t>
+  </si>
+  <si>
+    <t>SFRC_6</t>
+  </si>
+  <si>
+    <t>SFRC_7</t>
+  </si>
+  <si>
+    <t>SFRC_8</t>
+  </si>
+  <si>
+    <t>SFRC_9</t>
+  </si>
+  <si>
+    <t>SFRC_10</t>
+  </si>
+  <si>
+    <t>SRC_1</t>
+  </si>
+  <si>
+    <t>SRC_2</t>
+  </si>
+  <si>
+    <t>SRC_3</t>
+  </si>
+  <si>
+    <t>SRC_4</t>
+  </si>
+  <si>
+    <t>SRC_5</t>
+  </si>
+  <si>
+    <t>SRC_6</t>
+  </si>
+  <si>
+    <t>SRC_7</t>
+  </si>
+  <si>
+    <t>SRC_8</t>
+  </si>
+  <si>
+    <t>SRC_9</t>
+  </si>
+  <si>
+    <t>SRC_10</t>
+  </si>
+  <si>
+    <t>csr</t>
+  </si>
+  <si>
+    <t>NSRC_1</t>
+  </si>
+  <si>
+    <t>NSRC_2</t>
+  </si>
+  <si>
+    <t>NSRC_3</t>
+  </si>
+  <si>
+    <t>NSRC_4</t>
+  </si>
+  <si>
+    <t>NSRC_5</t>
+  </si>
+  <si>
+    <t>NSRC_6</t>
+  </si>
+  <si>
+    <t>NSRC_7</t>
+  </si>
+  <si>
+    <t>NSRC_8</t>
+  </si>
+  <si>
+    <t>NSRC_9</t>
+  </si>
+  <si>
+    <t>NSRC_10</t>
+  </si>
+  <si>
+    <t>cnsr</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>Dcost_1</t>
+  </si>
+  <si>
+    <t>Dcost_2</t>
+  </si>
+  <si>
+    <t>Dcost_3</t>
+  </si>
+  <si>
+    <t>Dcost_4</t>
+  </si>
+  <si>
+    <t>Dcost_5</t>
+  </si>
+  <si>
+    <t>Dcost_6</t>
+  </si>
+  <si>
+    <t>Dcost_7</t>
+  </si>
+  <si>
+    <t>Dcost_8</t>
+  </si>
+  <si>
+    <t>Dcost_9</t>
+  </si>
+  <si>
+    <t>Dcost_10</t>
+  </si>
+  <si>
+    <t>Dcost_11</t>
+  </si>
+  <si>
+    <t>Dcost_12</t>
+  </si>
+  <si>
+    <t>Dcost_13</t>
+  </si>
+  <si>
+    <t>Dcost_14</t>
+  </si>
+  <si>
+    <t>Dcost_15</t>
+  </si>
+  <si>
+    <t>Dcost_16</t>
+  </si>
+  <si>
+    <t>Dcost_17</t>
+  </si>
+  <si>
+    <t>Dcost_18</t>
+  </si>
+  <si>
+    <t>Dcost_19</t>
+  </si>
+  <si>
+    <t>Dcost_20</t>
+  </si>
+  <si>
+    <t>Dcost_21</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>StaticGen</t>
+  </si>
+  <si>
+    <t>Load factor in EDTSlot and UCTSlot sourced from ISO-NE day-ahead cleared hourly load on 2022 June 29</t>
+  </si>
+  <si>
+    <t>Modified IEEE 39-bus test case</t>
+  </si>
+  <si>
+    <t>Minimum on/off time of generators were made up</t>
+  </si>
+  <si>
     <t>UCT8</t>
   </si>
   <si>
@@ -940,280 +1318,69 @@
     <t>UCT11</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>UCT12</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>UCT13</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>UCT14</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>UCT15</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>UCT16</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>UCT17</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>UCT18</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>UCT19</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>UCT20</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>UCT21</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>UCT22</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>UCT23</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>UCT24</t>
   </si>
   <si>
-    <t>EDT7</t>
-  </si>
-  <si>
-    <t>EDT8</t>
-  </si>
-  <si>
-    <t>EDT9</t>
-  </si>
-  <si>
-    <t>EDT10</t>
-  </si>
-  <si>
-    <t>EDT11</t>
-  </si>
-  <si>
-    <t>EDT12</t>
-  </si>
-  <si>
-    <t>EDT13</t>
-  </si>
-  <si>
-    <t>EDT14</t>
-  </si>
-  <si>
-    <t>EDT15</t>
-  </si>
-  <si>
-    <t>EDT16</t>
-  </si>
-  <si>
-    <t>EDT17</t>
-  </si>
-  <si>
-    <t>EDT18</t>
-  </si>
-  <si>
-    <t>EDT19</t>
-  </si>
-  <si>
-    <t>EDT20</t>
-  </si>
-  <si>
-    <t>EDT21</t>
-  </si>
-  <si>
-    <t>EDT22</t>
-  </si>
-  <si>
-    <t>EDT23</t>
-  </si>
-  <si>
-    <t>EDT24</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>comment2</t>
-  </si>
-  <si>
-    <t>comment3</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Modified IEEE 14-bus test case</t>
-  </si>
-  <si>
-    <t>Slack_31</t>
-  </si>
-  <si>
-    <t>PV_30</t>
-  </si>
-  <si>
-    <t>PV_32</t>
-  </si>
-  <si>
-    <t>PV_33</t>
-  </si>
-  <si>
-    <t>PV_34</t>
-  </si>
-  <si>
-    <t>PV_35</t>
-  </si>
-  <si>
-    <t>PV_36</t>
-  </si>
-  <si>
-    <t>PV_37</t>
-  </si>
-  <si>
-    <t>PV_38</t>
-  </si>
-  <si>
-    <t>PV_39</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t>SR2</t>
-  </si>
-  <si>
-    <t>NSR1</t>
-  </si>
-  <si>
-    <t>NSR2</t>
-  </si>
-  <si>
-    <t>1, 0</t>
-  </si>
-  <si>
-    <t>0.641, 0</t>
-  </si>
-  <si>
-    <t>0.634, 0</t>
-  </si>
-  <si>
-    <t>0.623, 0</t>
-  </si>
-  <si>
-    <t>0.615, 0</t>
-  </si>
-  <si>
-    <t>0.62, 0</t>
-  </si>
-  <si>
-    <t>0.665, 0</t>
-  </si>
-  <si>
-    <t>0.713, 0</t>
-  </si>
-  <si>
-    <t>0.728, 0</t>
-  </si>
-  <si>
-    <t>0.746, 0</t>
-  </si>
-  <si>
-    <t>0.776, 0</t>
-  </si>
-  <si>
-    <t>0.808, 0</t>
-  </si>
-  <si>
-    <t>0.835, 0</t>
-  </si>
-  <si>
-    <t>0.86, 0</t>
-  </si>
-  <si>
-    <t>0.879, 0</t>
-  </si>
-  <si>
-    <t>0.922, 0</t>
-  </si>
-  <si>
-    <t>0.954, 0</t>
-  </si>
-  <si>
-    <t>0.996, 0</t>
-  </si>
-  <si>
-    <t>0.986, 0</t>
-  </si>
-  <si>
-    <t>0.949, 0</t>
-  </si>
-  <si>
-    <t>0.901, 0</t>
-  </si>
-  <si>
-    <t>0.823, 0</t>
-  </si>
-  <si>
-    <t>0.737, 0</t>
-  </si>
-  <si>
-    <t>SFR1</t>
+    <t>SFR2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1277,7 +1444,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1300,29 +1467,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1627,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04B75D-6231-274E-B5EE-94327CA089DE}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1640,16 +1825,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1657,13 +1842,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+        <v>318</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C4" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,617 +1878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" t="s">
-        <v>352</v>
-      </c>
-      <c r="D7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C11" t="s">
-        <v>356</v>
-      </c>
-      <c r="D11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView zoomScale="185" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>100.2</v>
-      </c>
-      <c r="J2">
-        <v>30.2</v>
-      </c>
-      <c r="K2">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>100.4</v>
-      </c>
-      <c r="J3">
-        <v>30.4</v>
-      </c>
-      <c r="K3">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>100.6</v>
-      </c>
-      <c r="J4">
-        <v>30.6</v>
-      </c>
-      <c r="K4">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>100.9</v>
-      </c>
-      <c r="J5">
-        <v>30.9</v>
-      </c>
-      <c r="K5">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>100.5</v>
-      </c>
-      <c r="J6">
-        <v>30.5</v>
-      </c>
-      <c r="K6">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>100.7</v>
-      </c>
-      <c r="J7">
-        <v>30.7</v>
-      </c>
-      <c r="K7">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>100.8</v>
-      </c>
-      <c r="J8">
-        <v>30.8</v>
-      </c>
-      <c r="K8">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" t="s">
-        <v>355</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>100.3</v>
-      </c>
-      <c r="J9">
-        <v>30.3</v>
-      </c>
-      <c r="K9">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" t="s">
-        <v>356</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>100.1</v>
-      </c>
-      <c r="J10">
-        <v>30.1</v>
-      </c>
-      <c r="K10">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D12" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2300,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2308,13 +1909,13 @@
         <v>260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>363</v>
+        <v>270</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2322,13 +1923,13 @@
         <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>364</v>
+        <v>271</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2336,13 +1937,13 @@
         <v>251</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>365</v>
+        <v>272</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2350,13 +1951,13 @@
         <v>252</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>366</v>
+        <v>273</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2364,13 +1965,13 @@
         <v>253</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>367</v>
+        <v>274</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2378,13 +1979,13 @@
         <v>254</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>367</v>
+        <v>275</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2392,13 +1993,13 @@
         <v>255</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>368</v>
+        <v>296</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2406,13 +2007,13 @@
         <v>256</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>369</v>
+        <v>297</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2420,13 +2021,13 @@
         <v>257</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>370</v>
+        <v>298</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2434,13 +2035,13 @@
         <v>258</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>371</v>
+        <v>299</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2448,209 +2049,209 @@
         <v>259</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>372</v>
+        <v>300</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>373</v>
+        <v>301</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>374</v>
+        <v>302</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>375</v>
+        <v>303</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>376</v>
+        <v>304</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>332</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>377</v>
+        <v>305</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>378</v>
+        <v>306</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>379</v>
+        <v>307</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>362</v>
+        <v>308</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>380</v>
+        <v>309</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>381</v>
+        <v>310</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>382</v>
+        <v>311</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>383</v>
+        <v>312</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>384</v>
+        <v>313</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="B8" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2668,439 +2269,1105 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>279</v>
+      <c r="D1" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="8"/>
+      <c r="B2" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>364</v>
+      <c r="B3" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>365</v>
+      <c r="B4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>366</v>
+      <c r="B5" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>367</v>
+      <c r="B6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>367</v>
+      <c r="B7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>368</v>
+      <c r="B8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>369</v>
+      <c r="B9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>370</v>
+      <c r="B10" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>371</v>
+      <c r="B11" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>372</v>
+      <c r="B12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>373</v>
+        <v>283</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>374</v>
+        <v>284</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>375</v>
+        <v>285</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>376</v>
+        <v>286</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>377</v>
+        <v>287</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>378</v>
+        <v>288</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>309</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>379</v>
+        <v>289</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>362</v>
+        <v>290</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>313</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>380</v>
+        <v>291</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>381</v>
+        <v>292</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>382</v>
+        <v>293</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>383</v>
+        <v>294</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>321</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>356</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCED7658-B1DA-6B44-A6A5-19CA8DACC801}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="187" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F41B66-3F5A-A846-A642-21ADD81835C9}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="183" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>264</v>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F41B66-3F5A-A846-A642-21ADD81835C9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C2" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3119,54 +3386,469 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.05</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.05</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3175,9 +3857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4836,7 +5518,7 @@
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5559,7 +6241,7 @@
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5617,55 +6299,55 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -5673,13 +6355,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="E2">
         <v>1500</v>
@@ -5721,17 +6403,17 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>0.3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -5748,28 +6430,28 @@
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>99</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>99</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>299</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5781,9 +6463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5841,52 +6523,52 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -5894,13 +6576,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="E2">
         <v>1040</v>
@@ -5942,17 +6624,17 @@
         <v>0.6</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>0.3</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -5966,28 +6648,28 @@
         <v>0</v>
       </c>
       <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>99</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>99</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>299</v>
       </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -5995,13 +6677,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="E3">
         <v>725</v>
@@ -6043,17 +6725,17 @@
         <v>0.6</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>0.3</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
         <v>0</v>
       </c>
@@ -6067,28 +6749,28 @@
         <v>0</v>
       </c>
       <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>99</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>99</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>299</v>
       </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
@@ -6096,13 +6778,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="E4">
         <v>652</v>
@@ -6144,17 +6826,17 @@
         <v>0.6</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>0.3</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
         <v>0</v>
       </c>
@@ -6168,28 +6850,28 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
         <v>99</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>99</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>299</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -6197,13 +6879,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
       <c r="E5">
         <v>508</v>
@@ -6245,17 +6927,17 @@
         <v>0.6</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>0.3</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -6269,28 +6951,28 @@
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>99</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>99</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>299</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
@@ -6298,13 +6980,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E6">
         <v>687</v>
@@ -6346,17 +7028,17 @@
         <v>0.6</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0.3</v>
       </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
         <v>0</v>
       </c>
@@ -6370,28 +7052,28 @@
         <v>0</v>
       </c>
       <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>99</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>99</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>299</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
@@ -6399,13 +7081,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="E7">
         <v>580</v>
@@ -6447,17 +7129,17 @@
         <v>0.6</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0.3</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
@@ -6471,28 +7153,28 @@
         <v>0</v>
       </c>
       <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>99</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>99</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>299</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
@@ -6500,13 +7182,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="E8">
         <v>564</v>
@@ -6548,17 +7230,17 @@
         <v>0.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>0.3</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
         <v>0</v>
       </c>
@@ -6572,28 +7254,28 @@
         <v>0</v>
       </c>
       <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>99</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>99</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>299</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
@@ -6601,13 +7283,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="E9">
         <v>865</v>
@@ -6649,17 +7331,17 @@
         <v>0.6</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>0.3</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
@@ -6673,28 +7355,28 @@
         <v>0</v>
       </c>
       <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>99</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>99</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>299</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
@@ -6702,13 +7384,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="E10">
         <v>1100</v>
@@ -6750,17 +7432,17 @@
         <v>0.6</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>0.3</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
       <c r="V10">
         <v>0</v>
       </c>
@@ -6774,32 +7456,32 @@
         <v>0</v>
       </c>
       <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>99</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>99</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>299</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10642,7 +11324,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10700,68 +11382,410 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="185" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>263</v>
+      <c r="E1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>100.2</v>
+      </c>
+      <c r="J2">
+        <v>30.2</v>
+      </c>
+      <c r="K2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>100.4</v>
+      </c>
+      <c r="J3">
+        <v>30.4</v>
+      </c>
+      <c r="K3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>100.6</v>
+      </c>
+      <c r="J4">
+        <v>30.6</v>
+      </c>
+      <c r="K4">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>100.9</v>
+      </c>
+      <c r="J5">
+        <v>30.9</v>
+      </c>
+      <c r="K5">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>100.5</v>
+      </c>
+      <c r="J6">
+        <v>30.5</v>
+      </c>
+      <c r="K6">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100.7</v>
+      </c>
+      <c r="J7">
+        <v>30.7</v>
+      </c>
+      <c r="K7">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>100.8</v>
+      </c>
+      <c r="J8">
+        <v>30.8</v>
+      </c>
+      <c r="K8">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100.3</v>
+      </c>
+      <c r="J9">
+        <v>30.3</v>
+      </c>
+      <c r="K9">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100.1</v>
+      </c>
+      <c r="J10">
+        <v>30.1</v>
+      </c>
+      <c r="K10">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A35B769-7038-344F-8C34-2391205B9F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA1D92-B544-1445-BF59-5C4304437D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -24,13 +24,12 @@
     <sheet name="GCost" sheetId="6" r:id="rId9"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId10"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId11"/>
-    <sheet name="DCost" sheetId="22" r:id="rId12"/>
-    <sheet name="SFR" sheetId="9" r:id="rId13"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId14"/>
-    <sheet name="SR" sheetId="18" r:id="rId15"/>
-    <sheet name="SRCost" sheetId="20" r:id="rId16"/>
-    <sheet name="NSR" sheetId="19" r:id="rId17"/>
-    <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
+    <sheet name="SFR" sheetId="9" r:id="rId12"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId13"/>
+    <sheet name="SR" sheetId="18" r:id="rId14"/>
+    <sheet name="SRCost" sheetId="20" r:id="rId15"/>
+    <sheet name="NSR" sheetId="19" r:id="rId16"/>
+    <sheet name="NSRCost" sheetId="21" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="413">
   <si>
     <t>idx</t>
   </si>
@@ -1220,75 +1219,6 @@
   </si>
   <si>
     <t>cnsr</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>cd</t>
-  </si>
-  <si>
-    <t>Dcost_1</t>
-  </si>
-  <si>
-    <t>Dcost_2</t>
-  </si>
-  <si>
-    <t>Dcost_3</t>
-  </si>
-  <si>
-    <t>Dcost_4</t>
-  </si>
-  <si>
-    <t>Dcost_5</t>
-  </si>
-  <si>
-    <t>Dcost_6</t>
-  </si>
-  <si>
-    <t>Dcost_7</t>
-  </si>
-  <si>
-    <t>Dcost_8</t>
-  </si>
-  <si>
-    <t>Dcost_9</t>
-  </si>
-  <si>
-    <t>Dcost_10</t>
-  </si>
-  <si>
-    <t>Dcost_11</t>
-  </si>
-  <si>
-    <t>Dcost_12</t>
-  </si>
-  <si>
-    <t>Dcost_13</t>
-  </si>
-  <si>
-    <t>Dcost_14</t>
-  </si>
-  <si>
-    <t>Dcost_15</t>
-  </si>
-  <si>
-    <t>Dcost_16</t>
-  </si>
-  <si>
-    <t>Dcost_17</t>
-  </si>
-  <si>
-    <t>Dcost_18</t>
-  </si>
-  <si>
-    <t>Dcost_19</t>
-  </si>
-  <si>
-    <t>Dcost_20</t>
-  </si>
-  <si>
-    <t>Dcost_21</t>
   </si>
   <si>
     <t>Load</t>
@@ -1444,7 +1374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1467,22 +1397,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1499,12 +1418,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1844,8 +1757,8 @@
       <c r="B2" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>416</v>
+      <c r="C2" s="9" t="s">
+        <v>393</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1855,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1866,10 +1779,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2182,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>269</v>
       </c>
     </row>
@@ -2277,10 +2190,10 @@
       <c r="A2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>276</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -2292,10 +2205,10 @@
       <c r="A3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>277</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -2306,10 +2219,10 @@
       <c r="A4" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>278</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -2320,10 +2233,10 @@
       <c r="A5" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>279</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -2334,10 +2247,10 @@
       <c r="A6" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>280</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -2348,10 +2261,10 @@
       <c r="A7" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>281</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2362,10 +2275,10 @@
       <c r="A8" t="s">
         <v>255</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>282</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2376,11 +2289,11 @@
       <c r="A9" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>418</v>
+      <c r="B9" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>341</v>
@@ -2390,11 +2303,11 @@
       <c r="A10" t="s">
         <v>257</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>419</v>
+      <c r="B10" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>342</v>
@@ -2404,11 +2317,11 @@
       <c r="A11" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>420</v>
+      <c r="B11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>343</v>
@@ -2418,11 +2331,11 @@
       <c r="A12" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>421</v>
+      <c r="B12" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>344</v>
@@ -2432,11 +2345,11 @@
       <c r="A13" t="s">
         <v>283</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>422</v>
+      <c r="B13" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>345</v>
@@ -2446,11 +2359,11 @@
       <c r="A14" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>423</v>
+      <c r="B14" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>346</v>
@@ -2460,11 +2373,11 @@
       <c r="A15" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>424</v>
+      <c r="B15" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>347</v>
@@ -2474,11 +2387,11 @@
       <c r="A16" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>425</v>
+      <c r="B16" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>348</v>
@@ -2488,11 +2401,11 @@
       <c r="A17" t="s">
         <v>287</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>426</v>
+      <c r="B17" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>349</v>
@@ -2502,11 +2415,11 @@
       <c r="A18" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>427</v>
+      <c r="B18" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>350</v>
@@ -2516,11 +2429,11 @@
       <c r="A19" t="s">
         <v>289</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>428</v>
+      <c r="B19" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>351</v>
@@ -2530,11 +2443,11 @@
       <c r="A20" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>429</v>
+      <c r="B20" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>334</v>
@@ -2544,11 +2457,11 @@
       <c r="A21" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>430</v>
+      <c r="B21" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>352</v>
@@ -2558,11 +2471,11 @@
       <c r="A22" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>431</v>
+      <c r="B22" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>353</v>
@@ -2572,11 +2485,11 @@
       <c r="A23" t="s">
         <v>293</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>432</v>
+      <c r="B23" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>354</v>
@@ -2586,11 +2499,11 @@
       <c r="A24" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>433</v>
+      <c r="B24" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>355</v>
@@ -2600,11 +2513,11 @@
       <c r="A25" t="s">
         <v>295</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>434</v>
+      <c r="B25" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>356</v>
@@ -2617,470 +2530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCED7658-B1DA-6B44-A6A5-19CA8DACC801}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3136,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="E3" s="2">
         <v>0.05</v>
@@ -3159,7 +2613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3362,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F41B66-3F5A-A846-A642-21ADD81835C9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3437,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -3607,7 +3061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3683,11 +3137,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA1D92-B544-1445-BF59-5C4304437D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE081B73-8560-CB44-B27D-67AAF4BA174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2660" windowWidth="21600" windowHeight="18940" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
     <sheet name="Bus" sheetId="1" r:id="rId2"/>
     <sheet name="PQ" sheetId="2" r:id="rId3"/>
-    <sheet name="Slack" sheetId="4" r:id="rId4"/>
-    <sheet name="PV" sheetId="3" r:id="rId5"/>
+    <sheet name="PV" sheetId="3" r:id="rId4"/>
+    <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="Region" sheetId="8" r:id="rId8"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="494">
   <si>
     <t>idx</t>
   </si>
@@ -93,123 +93,6 @@
     <t>uid</t>
   </si>
   <si>
-    <t>Bus 1</t>
-  </si>
-  <si>
-    <t>Bus 2</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
-  </si>
-  <si>
-    <t>Bus 4</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>Bus 6</t>
-  </si>
-  <si>
-    <t>Bus 7</t>
-  </si>
-  <si>
-    <t>Bus 8</t>
-  </si>
-  <si>
-    <t>Bus 9</t>
-  </si>
-  <si>
-    <t>Bus 10</t>
-  </si>
-  <si>
-    <t>Bus 11</t>
-  </si>
-  <si>
-    <t>Bus 12</t>
-  </si>
-  <si>
-    <t>Bus 13</t>
-  </si>
-  <si>
-    <t>Bus 14</t>
-  </si>
-  <si>
-    <t>Bus 15</t>
-  </si>
-  <si>
-    <t>Bus 16</t>
-  </si>
-  <si>
-    <t>Bus 17</t>
-  </si>
-  <si>
-    <t>Bus 18</t>
-  </si>
-  <si>
-    <t>Bus 19</t>
-  </si>
-  <si>
-    <t>Bus 20</t>
-  </si>
-  <si>
-    <t>Bus 21</t>
-  </si>
-  <si>
-    <t>Bus 22</t>
-  </si>
-  <si>
-    <t>Bus 23</t>
-  </si>
-  <si>
-    <t>Bus 24</t>
-  </si>
-  <si>
-    <t>Bus 25</t>
-  </si>
-  <si>
-    <t>Bus 26</t>
-  </si>
-  <si>
-    <t>Bus 27</t>
-  </si>
-  <si>
-    <t>Bus 28</t>
-  </si>
-  <si>
-    <t>Bus 29</t>
-  </si>
-  <si>
-    <t>Bus 30</t>
-  </si>
-  <si>
-    <t>Bus 31</t>
-  </si>
-  <si>
-    <t>Bus 32</t>
-  </si>
-  <si>
-    <t>Bus 33</t>
-  </si>
-  <si>
-    <t>Bus 34</t>
-  </si>
-  <si>
-    <t>Bus 35</t>
-  </si>
-  <si>
-    <t>Bus 36</t>
-  </si>
-  <si>
-    <t>Bus 37</t>
-  </si>
-  <si>
-    <t>Bus 38</t>
-  </si>
-  <si>
-    <t>Bus 39</t>
-  </si>
-  <si>
     <t>bus</t>
   </si>
   <si>
@@ -276,75 +159,6 @@
     <t>PQ_19</t>
   </si>
   <si>
-    <t>PQ_20</t>
-  </si>
-  <si>
-    <t>PQ_21</t>
-  </si>
-  <si>
-    <t>PQ 1</t>
-  </si>
-  <si>
-    <t>PQ 3</t>
-  </si>
-  <si>
-    <t>PQ 4</t>
-  </si>
-  <si>
-    <t>PQ 7</t>
-  </si>
-  <si>
-    <t>PQ 8</t>
-  </si>
-  <si>
-    <t>PQ 9</t>
-  </si>
-  <si>
-    <t>PQ 12</t>
-  </si>
-  <si>
-    <t>PQ 15</t>
-  </si>
-  <si>
-    <t>PQ 16</t>
-  </si>
-  <si>
-    <t>PQ 18</t>
-  </si>
-  <si>
-    <t>PQ 20</t>
-  </si>
-  <si>
-    <t>PQ 21</t>
-  </si>
-  <si>
-    <t>PQ 23</t>
-  </si>
-  <si>
-    <t>PQ 24</t>
-  </si>
-  <si>
-    <t>PQ 25</t>
-  </si>
-  <si>
-    <t>PQ 26</t>
-  </si>
-  <si>
-    <t>PQ 27</t>
-  </si>
-  <si>
-    <t>PQ 28</t>
-  </si>
-  <si>
-    <t>PQ 29</t>
-  </si>
-  <si>
-    <t>PQ 31</t>
-  </si>
-  <si>
-    <t>PQ 39</t>
-  </si>
-  <si>
     <t>Sn</t>
   </si>
   <si>
@@ -861,45 +675,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>EDT1</t>
-  </si>
-  <si>
-    <t>EDT2</t>
-  </si>
-  <si>
-    <t>EDT3</t>
-  </si>
-  <si>
-    <t>EDT4</t>
-  </si>
-  <si>
-    <t>EDT5</t>
-  </si>
-  <si>
-    <t>EDT6</t>
-  </si>
-  <si>
-    <t>UCT1</t>
-  </si>
-  <si>
-    <t>UCT2</t>
-  </si>
-  <si>
-    <t>UCT3</t>
-  </si>
-  <si>
-    <t>UCT4</t>
-  </si>
-  <si>
-    <t>UCT5</t>
-  </si>
-  <si>
-    <t>UCT6</t>
-  </si>
-  <si>
-    <t>UCT7</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -939,60 +714,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>EDT7</t>
-  </si>
-  <si>
-    <t>EDT8</t>
-  </si>
-  <si>
-    <t>EDT9</t>
-  </si>
-  <si>
-    <t>EDT10</t>
-  </si>
-  <si>
-    <t>EDT11</t>
-  </si>
-  <si>
-    <t>EDT12</t>
-  </si>
-  <si>
-    <t>EDT13</t>
-  </si>
-  <si>
-    <t>EDT14</t>
-  </si>
-  <si>
-    <t>EDT15</t>
-  </si>
-  <si>
-    <t>EDT16</t>
-  </si>
-  <si>
-    <t>EDT17</t>
-  </si>
-  <si>
-    <t>EDT18</t>
-  </si>
-  <si>
-    <t>EDT19</t>
-  </si>
-  <si>
-    <t>EDT20</t>
-  </si>
-  <si>
-    <t>EDT21</t>
-  </si>
-  <si>
-    <t>EDT22</t>
-  </si>
-  <si>
-    <t>EDT23</t>
-  </si>
-  <si>
-    <t>EDT24</t>
-  </si>
-  <si>
     <t>field</t>
   </si>
   <si>
@@ -1008,9 +729,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Slack_31</t>
-  </si>
-  <si>
     <t>PV_30</t>
   </si>
   <si>
@@ -1035,24 +753,9 @@
     <t>PV_38</t>
   </si>
   <si>
-    <t>PV_39</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t>SR2</t>
-  </si>
-  <si>
-    <t>NSR1</t>
-  </si>
-  <si>
-    <t>NSR2</t>
-  </si>
-  <si>
     <t>1, 0</t>
   </si>
   <si>
@@ -1122,9 +825,6 @@
     <t>0.737, 0</t>
   </si>
   <si>
-    <t>SFR1</t>
-  </si>
-  <si>
     <t>SFRC_1</t>
   </si>
   <si>
@@ -1236,67 +936,617 @@
     <t>Minimum on/off time of generators were made up</t>
   </si>
   <si>
-    <t>UCT8</t>
-  </si>
-  <si>
-    <t>UCT9</t>
-  </si>
-  <si>
-    <t>UCT10</t>
-  </si>
-  <si>
-    <t>UCT11</t>
-  </si>
-  <si>
-    <t>UCT12</t>
-  </si>
-  <si>
-    <t>UCT13</t>
-  </si>
-  <si>
-    <t>UCT14</t>
-  </si>
-  <si>
-    <t>UCT15</t>
-  </si>
-  <si>
-    <t>UCT16</t>
-  </si>
-  <si>
-    <t>UCT17</t>
-  </si>
-  <si>
-    <t>UCT18</t>
-  </si>
-  <si>
-    <t>UCT19</t>
-  </si>
-  <si>
-    <t>UCT20</t>
-  </si>
-  <si>
-    <t>UCT21</t>
-  </si>
-  <si>
-    <t>UCT22</t>
-  </si>
-  <si>
-    <t>UCT23</t>
-  </si>
-  <si>
-    <t>UCT24</t>
-  </si>
-  <si>
-    <t>SFR2</t>
+    <t>BUS1</t>
+  </si>
+  <si>
+    <t>BUS2</t>
+  </si>
+  <si>
+    <t>LOAD3</t>
+  </si>
+  <si>
+    <t>LOAD4</t>
+  </si>
+  <si>
+    <t>BUS5</t>
+  </si>
+  <si>
+    <t>BUS6</t>
+  </si>
+  <si>
+    <t>LOAD7</t>
+  </si>
+  <si>
+    <t>LOAD8</t>
+  </si>
+  <si>
+    <t>BUS9</t>
+  </si>
+  <si>
+    <t>BUS10</t>
+  </si>
+  <si>
+    <t>BUS11</t>
+  </si>
+  <si>
+    <t>LOAD12</t>
+  </si>
+  <si>
+    <t>BUS13</t>
+  </si>
+  <si>
+    <t>BUS14</t>
+  </si>
+  <si>
+    <t>LOAD15</t>
+  </si>
+  <si>
+    <t>LOAD16</t>
+  </si>
+  <si>
+    <t>BUS17</t>
+  </si>
+  <si>
+    <t>LOAD18</t>
+  </si>
+  <si>
+    <t>BUS19</t>
+  </si>
+  <si>
+    <t>LOAD20</t>
+  </si>
+  <si>
+    <t>LOAD21</t>
+  </si>
+  <si>
+    <t>BUS22</t>
+  </si>
+  <si>
+    <t>LOAD23</t>
+  </si>
+  <si>
+    <t>LOAD24</t>
+  </si>
+  <si>
+    <t>LOAD25</t>
+  </si>
+  <si>
+    <t>LOAD26</t>
+  </si>
+  <si>
+    <t>LOAD27</t>
+  </si>
+  <si>
+    <t>LOAD28</t>
+  </si>
+  <si>
+    <t>LOAD29</t>
+  </si>
+  <si>
+    <t>GEN30</t>
+  </si>
+  <si>
+    <t>GEN31</t>
+  </si>
+  <si>
+    <t>GEN32</t>
+  </si>
+  <si>
+    <t>GEN33</t>
+  </si>
+  <si>
+    <t>GEN34</t>
+  </si>
+  <si>
+    <t>GEN35</t>
+  </si>
+  <si>
+    <t>GEN36</t>
+  </si>
+  <si>
+    <t>GEN37</t>
+  </si>
+  <si>
+    <t>GEN38</t>
+  </si>
+  <si>
+    <t>GEN39</t>
+  </si>
+  <si>
+    <t>PV_31</t>
+  </si>
+  <si>
+    <t>Slack_39</t>
+  </si>
+  <si>
+    <t>PV 30</t>
+  </si>
+  <si>
+    <t>PV 31</t>
+  </si>
+  <si>
+    <t>PV 32</t>
+  </si>
+  <si>
+    <t>PV 33</t>
+  </si>
+  <si>
+    <t>PV 34</t>
+  </si>
+  <si>
+    <t>PV 35</t>
+  </si>
+  <si>
+    <t>PV 36</t>
+  </si>
+  <si>
+    <t>PV 37</t>
+  </si>
+  <si>
+    <t>PV 38</t>
+  </si>
+  <si>
+    <t>Slack 39</t>
+  </si>
+  <si>
+    <t>SFR_1</t>
+  </si>
+  <si>
+    <t>SFR_2</t>
+  </si>
+  <si>
+    <t>SFR 1</t>
+  </si>
+  <si>
+    <t>SFR 2</t>
+  </si>
+  <si>
+    <t>UCT_1</t>
+  </si>
+  <si>
+    <t>UCT_2</t>
+  </si>
+  <si>
+    <t>UCT_3</t>
+  </si>
+  <si>
+    <t>UCT_4</t>
+  </si>
+  <si>
+    <t>UCT_5</t>
+  </si>
+  <si>
+    <t>UCT_6</t>
+  </si>
+  <si>
+    <t>UCT_7</t>
+  </si>
+  <si>
+    <t>UCT_8</t>
+  </si>
+  <si>
+    <t>UCT_9</t>
+  </si>
+  <si>
+    <t>UCT_10</t>
+  </si>
+  <si>
+    <t>UCT_11</t>
+  </si>
+  <si>
+    <t>UCT_12</t>
+  </si>
+  <si>
+    <t>UCT_13</t>
+  </si>
+  <si>
+    <t>UCT_14</t>
+  </si>
+  <si>
+    <t>UCT_15</t>
+  </si>
+  <si>
+    <t>UCT_16</t>
+  </si>
+  <si>
+    <t>UCT_17</t>
+  </si>
+  <si>
+    <t>UCT_18</t>
+  </si>
+  <si>
+    <t>UCT_19</t>
+  </si>
+  <si>
+    <t>UCT_20</t>
+  </si>
+  <si>
+    <t>UCT_21</t>
+  </si>
+  <si>
+    <t>UCT_22</t>
+  </si>
+  <si>
+    <t>UCT_23</t>
+  </si>
+  <si>
+    <t>UCT_24</t>
+  </si>
+  <si>
+    <t>UCT 1</t>
+  </si>
+  <si>
+    <t>UCT 2</t>
+  </si>
+  <si>
+    <t>UCT 3</t>
+  </si>
+  <si>
+    <t>UCT 4</t>
+  </si>
+  <si>
+    <t>UCT 5</t>
+  </si>
+  <si>
+    <t>UCT 6</t>
+  </si>
+  <si>
+    <t>UCT 7</t>
+  </si>
+  <si>
+    <t>UCT 8</t>
+  </si>
+  <si>
+    <t>UCT 9</t>
+  </si>
+  <si>
+    <t>UCT 10</t>
+  </si>
+  <si>
+    <t>UCT 11</t>
+  </si>
+  <si>
+    <t>UCT 12</t>
+  </si>
+  <si>
+    <t>UCT 13</t>
+  </si>
+  <si>
+    <t>UCT 14</t>
+  </si>
+  <si>
+    <t>UCT 15</t>
+  </si>
+  <si>
+    <t>UCT 16</t>
+  </si>
+  <si>
+    <t>UCT 17</t>
+  </si>
+  <si>
+    <t>UCT 18</t>
+  </si>
+  <si>
+    <t>UCT 19</t>
+  </si>
+  <si>
+    <t>UCT 20</t>
+  </si>
+  <si>
+    <t>UCT 21</t>
+  </si>
+  <si>
+    <t>UCT 22</t>
+  </si>
+  <si>
+    <t>UCT 23</t>
+  </si>
+  <si>
+    <t>UCT 24</t>
+  </si>
+  <si>
+    <t>SFRC 1</t>
+  </si>
+  <si>
+    <t>SFRC 2</t>
+  </si>
+  <si>
+    <t>SFRC 3</t>
+  </si>
+  <si>
+    <t>SFRC 4</t>
+  </si>
+  <si>
+    <t>SFRC 5</t>
+  </si>
+  <si>
+    <t>SFRC 6</t>
+  </si>
+  <si>
+    <t>SFRC 7</t>
+  </si>
+  <si>
+    <t>SFRC 8</t>
+  </si>
+  <si>
+    <t>SFRC 9</t>
+  </si>
+  <si>
+    <t>SFRC 10</t>
+  </si>
+  <si>
+    <t>EDT_1</t>
+  </si>
+  <si>
+    <t>EDT_2</t>
+  </si>
+  <si>
+    <t>EDT_3</t>
+  </si>
+  <si>
+    <t>EDT_4</t>
+  </si>
+  <si>
+    <t>EDT_5</t>
+  </si>
+  <si>
+    <t>EDT_6</t>
+  </si>
+  <si>
+    <t>EDT_7</t>
+  </si>
+  <si>
+    <t>EDT_8</t>
+  </si>
+  <si>
+    <t>EDT_9</t>
+  </si>
+  <si>
+    <t>EDT_10</t>
+  </si>
+  <si>
+    <t>EDT_11</t>
+  </si>
+  <si>
+    <t>EDT_12</t>
+  </si>
+  <si>
+    <t>EDT_13</t>
+  </si>
+  <si>
+    <t>EDT_14</t>
+  </si>
+  <si>
+    <t>EDT_15</t>
+  </si>
+  <si>
+    <t>EDT_16</t>
+  </si>
+  <si>
+    <t>EDT_17</t>
+  </si>
+  <si>
+    <t>EDT_18</t>
+  </si>
+  <si>
+    <t>EDT_19</t>
+  </si>
+  <si>
+    <t>EDT_20</t>
+  </si>
+  <si>
+    <t>EDT_21</t>
+  </si>
+  <si>
+    <t>EDT_22</t>
+  </si>
+  <si>
+    <t>EDT_23</t>
+  </si>
+  <si>
+    <t>EDT_24</t>
+  </si>
+  <si>
+    <t>EDT 1</t>
+  </si>
+  <si>
+    <t>EDT 2</t>
+  </si>
+  <si>
+    <t>EDT 3</t>
+  </si>
+  <si>
+    <t>EDT 4</t>
+  </si>
+  <si>
+    <t>EDT 5</t>
+  </si>
+  <si>
+    <t>EDT 6</t>
+  </si>
+  <si>
+    <t>EDT 7</t>
+  </si>
+  <si>
+    <t>EDT 8</t>
+  </si>
+  <si>
+    <t>EDT 9</t>
+  </si>
+  <si>
+    <t>EDT 10</t>
+  </si>
+  <si>
+    <t>EDT 11</t>
+  </si>
+  <si>
+    <t>EDT 12</t>
+  </si>
+  <si>
+    <t>EDT 13</t>
+  </si>
+  <si>
+    <t>EDT 14</t>
+  </si>
+  <si>
+    <t>EDT 15</t>
+  </si>
+  <si>
+    <t>EDT 16</t>
+  </si>
+  <si>
+    <t>EDT 17</t>
+  </si>
+  <si>
+    <t>EDT 18</t>
+  </si>
+  <si>
+    <t>EDT 19</t>
+  </si>
+  <si>
+    <t>EDT 20</t>
+  </si>
+  <si>
+    <t>EDT 21</t>
+  </si>
+  <si>
+    <t>EDT 22</t>
+  </si>
+  <si>
+    <t>EDT 23</t>
+  </si>
+  <si>
+    <t>EDT 24</t>
+  </si>
+  <si>
+    <t>Gcost 1</t>
+  </si>
+  <si>
+    <t>Gcost 2</t>
+  </si>
+  <si>
+    <t>Gcost 3</t>
+  </si>
+  <si>
+    <t>Gcost 4</t>
+  </si>
+  <si>
+    <t>Gcost 5</t>
+  </si>
+  <si>
+    <t>Gcost 6</t>
+  </si>
+  <si>
+    <t>Gcost 7</t>
+  </si>
+  <si>
+    <t>Gcost 8</t>
+  </si>
+  <si>
+    <t>Gcost 9</t>
+  </si>
+  <si>
+    <t>Gcost 10</t>
+  </si>
+  <si>
+    <t>SR_1</t>
+  </si>
+  <si>
+    <t>SR_2</t>
+  </si>
+  <si>
+    <t>SR 1</t>
+  </si>
+  <si>
+    <t>SR 2</t>
+  </si>
+  <si>
+    <t>SRC 1</t>
+  </si>
+  <si>
+    <t>SRC 2</t>
+  </si>
+  <si>
+    <t>SRC 3</t>
+  </si>
+  <si>
+    <t>SRC 4</t>
+  </si>
+  <si>
+    <t>SRC 5</t>
+  </si>
+  <si>
+    <t>SRC 6</t>
+  </si>
+  <si>
+    <t>SRC 7</t>
+  </si>
+  <si>
+    <t>SRC 8</t>
+  </si>
+  <si>
+    <t>SRC 9</t>
+  </si>
+  <si>
+    <t>SRC 10</t>
+  </si>
+  <si>
+    <t>NSR_1</t>
+  </si>
+  <si>
+    <t>NSR_2</t>
+  </si>
+  <si>
+    <t>NSR 1</t>
+  </si>
+  <si>
+    <t>NSR 2</t>
+  </si>
+  <si>
+    <t>NSRC 1</t>
+  </si>
+  <si>
+    <t>NSRC 2</t>
+  </si>
+  <si>
+    <t>NSRC 3</t>
+  </si>
+  <si>
+    <t>NSRC 4</t>
+  </si>
+  <si>
+    <t>NSRC 5</t>
+  </si>
+  <si>
+    <t>NSRC 6</t>
+  </si>
+  <si>
+    <t>NSRC 7</t>
+  </si>
+  <si>
+    <t>NSRC 8</t>
+  </si>
+  <si>
+    <t>NSRC 9</t>
+  </si>
+  <si>
+    <t>NSRC 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1401,24 +1651,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1738,16 +1989,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1755,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1768,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1779,10 +2030,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +2046,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="D12" sqref="A1:D25"/>
+      <selection activeCell="F24" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1814,347 +2065,347 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>270</v>
+        <v>198</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>271</v>
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>272</v>
+        <v>189</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>273</v>
+        <v>190</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>274</v>
+        <v>191</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>275</v>
+        <v>192</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>296</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>297</v>
+        <v>194</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>298</v>
+        <v>195</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>196</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>300</v>
+        <v>197</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>301</v>
+        <v>208</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>302</v>
+        <v>209</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>303</v>
+        <v>210</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>304</v>
+        <v>211</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>305</v>
+        <v>212</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>306</v>
+        <v>213</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>307</v>
+        <v>214</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>308</v>
+        <v>215</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>309</v>
+        <v>216</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>310</v>
+        <v>217</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>311</v>
+        <v>218</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>312</v>
+        <v>219</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>313</v>
+        <v>220</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2164,7 +2415,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:D25"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2183,348 +2434,348 @@
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>276</v>
+        <v>198</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>335</v>
+        <v>236</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>277</v>
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>278</v>
+        <v>189</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>279</v>
+        <v>190</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>338</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>280</v>
+        <v>191</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>378</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>281</v>
+        <v>192</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>339</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>282</v>
+        <v>193</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>380</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>395</v>
+        <v>194</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>381</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>341</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>396</v>
+        <v>195</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>382</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>397</v>
+        <v>196</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>383</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>398</v>
+        <v>197</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>399</v>
+        <v>208</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>345</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>400</v>
+        <v>209</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>386</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>401</v>
+        <v>210</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>347</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>286</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>402</v>
+        <v>211</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>348</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>403</v>
+        <v>212</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>349</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>404</v>
+        <v>213</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>350</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>405</v>
+        <v>214</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>290</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>406</v>
+        <v>215</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>407</v>
+        <v>216</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>408</v>
+        <v>217</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>409</v>
+        <v>218</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>354</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>294</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>410</v>
+        <v>219</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>355</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>295</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>411</v>
+        <v>220</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>356</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2533,8 +2784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2553,10 +2804,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
@@ -2564,16 +2815,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E2" s="2">
         <v>0.05</v>
@@ -2582,7 +2833,7 @@
         <v>0.05</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2590,13 +2841,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2">
         <v>0.05</v>
@@ -2605,25 +2856,26 @@
         <v>0.05</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="183" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2631,187 +2883,220 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
         <v>267</v>
       </c>
-      <c r="E1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>362</v>
-      </c>
-      <c r="C6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>367</v>
-      </c>
       <c r="C11" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2821,7 +3106,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A1:F3"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2840,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>11</v>
@@ -2851,19 +3136,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>330</v>
+        <v>466</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="E2" s="6">
         <v>0.03</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2871,37 +3156,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>331</v>
+        <v>467</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>331</v>
+        <v>469</v>
       </c>
       <c r="E3" s="6">
         <v>0.03</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:D11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2909,154 +3195,187 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" t="s">
+        <v>477</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="E10" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>371</v>
-      </c>
-      <c r="C5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>373</v>
-      </c>
-      <c r="C7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>374</v>
-      </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3066,7 +3385,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3404,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>329</v>
+        <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>11</v>
@@ -3096,19 +3415,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>332</v>
+        <v>480</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>332</v>
+        <v>482</v>
       </c>
       <c r="E2" s="6">
         <v>0.05</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3116,38 +3435,38 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>333</v>
+        <v>483</v>
       </c>
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3155,154 +3474,187 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C7" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="E10" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
-        <v>383</v>
-      </c>
-      <c r="C6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" t="s">
-        <v>387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>258</v>
-      </c>
-      <c r="B11" t="s">
-        <v>388</v>
-      </c>
-      <c r="C11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3311,9 +3663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3373,22 +3725,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="E2">
         <v>345</v>
       </c>
       <c r="F2">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G2">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H2">
-        <v>1.0393836000000001</v>
+        <v>1.03145</v>
       </c>
       <c r="I2">
-        <v>-0.2362582744320495</v>
+        <v>-0.21409604868364041</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3397,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3414,22 +3766,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c r="E3">
         <v>345</v>
       </c>
       <c r="F3">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H3">
-        <v>1.0484941000000001</v>
+        <v>1.00247</v>
       </c>
       <c r="I3">
-        <v>-0.170785120355431</v>
+        <v>-0.25021563755366311</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3438,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M3" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3455,22 +3807,22 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="E4">
         <v>345</v>
       </c>
       <c r="F4">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G4">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1.0307077</v>
+        <v>0.95347999999999999</v>
       </c>
       <c r="I4">
-        <v>-0.21426332103915149</v>
+        <v>-0.33425324103719001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3479,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M4" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -3496,22 +3848,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>298</v>
       </c>
       <c r="E5">
         <v>345</v>
       </c>
       <c r="F5">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G5">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H5">
-        <v>1.0044599999999999</v>
+        <v>0.93103000000000002</v>
       </c>
       <c r="I5">
-        <v>-0.2203780820735137</v>
+        <v>-0.33625164303072352</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3520,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M5" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -3537,22 +3889,22 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="E6">
         <v>345</v>
       </c>
       <c r="F6">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G6">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H6">
-        <v>1.0060062999999999</v>
+        <v>0.91744000000000003</v>
       </c>
       <c r="I6">
-        <v>-0.19534316654936959</v>
+        <v>-0.30487585906762149</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3561,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M6" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -3578,22 +3930,22 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="E7">
         <v>345</v>
       </c>
       <c r="F7">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G7">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
-        <v>1.0082256000000001</v>
+        <v>0.91857999999999995</v>
       </c>
       <c r="I7">
-        <v>-0.18165962813410139</v>
+        <v>-0.29191853470081558</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3602,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M7" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -3619,22 +3971,22 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="E8">
         <v>345</v>
       </c>
       <c r="F8">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G8">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H8">
-        <v>0.99839728000000005</v>
+        <v>0.86255000000000004</v>
       </c>
       <c r="I8">
-        <v>-0.2226276718529942</v>
+        <v>-0.32522639814587528</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3643,10 +3995,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M8" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -3660,22 +4012,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>302</v>
       </c>
       <c r="E9">
         <v>345</v>
       </c>
       <c r="F9">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G9">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H9">
-        <v>0.99787232000000003</v>
+        <v>0.87995000000000001</v>
       </c>
       <c r="I9">
-        <v>-0.2327543863323307</v>
+        <v>-0.3321710632395608</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3684,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M9" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3701,22 +4053,22 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>303</v>
       </c>
       <c r="E10">
         <v>345</v>
       </c>
       <c r="F10">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G10">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H10">
-        <v>1.038332</v>
+        <v>0.9788</v>
       </c>
       <c r="I10">
-        <v>-0.2474604957030499</v>
+        <v>-0.24487493004256039</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3725,10 +4077,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3742,22 +4094,22 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>304</v>
       </c>
       <c r="E11">
         <v>345</v>
       </c>
       <c r="F11">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G11">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>1.0178430999999999</v>
+        <v>0.95616000000000001</v>
       </c>
       <c r="I11">
-        <v>-0.1426086715188917</v>
+        <v>-0.25649707753159062</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3766,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M11" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -3783,22 +4135,22 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
       <c r="E12">
         <v>345</v>
       </c>
       <c r="F12">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H12">
-        <v>1.0133858</v>
+        <v>0.94294999999999995</v>
       </c>
       <c r="I12">
-        <v>-0.1559794870747753</v>
+        <v>-0.27025376269580997</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3807,10 +4159,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M12" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -3824,22 +4176,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="E13">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="F13">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G13">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H13">
-        <v>1.000815</v>
+        <v>0.94491000000000003</v>
       </c>
       <c r="I13">
-        <v>-0.15705910062616921</v>
+        <v>-0.30026469918385251</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3848,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M13" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -3865,22 +4217,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>307</v>
       </c>
       <c r="E14">
         <v>345</v>
       </c>
       <c r="F14">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G14">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>1.014923</v>
+        <v>0.95233999999999996</v>
       </c>
       <c r="I14">
-        <v>-0.15585663160339819</v>
+        <v>-0.27215442625123182</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3889,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M14" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -3906,22 +4258,22 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>308</v>
       </c>
       <c r="E15">
         <v>345</v>
       </c>
       <c r="F15">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H15">
-        <v>1.012319</v>
+        <v>0.94650999999999996</v>
       </c>
       <c r="I15">
-        <v>-0.1870171780724858</v>
+        <v>-0.30290189168361592</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3930,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M15" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -3947,22 +4299,22 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>309</v>
       </c>
       <c r="E16">
         <v>345</v>
       </c>
       <c r="F16">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G16">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H16">
-        <v>1.0161853999999999</v>
+        <v>0.95647000000000004</v>
       </c>
       <c r="I16">
-        <v>-0.19801456750247209</v>
+        <v>-0.31402662033582768</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3971,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -3988,22 +4340,22 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>310</v>
       </c>
       <c r="E17">
         <v>345</v>
       </c>
       <c r="F17">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G17">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H17">
-        <v>1.0325203000000001</v>
+        <v>0.97672999999999999</v>
       </c>
       <c r="I17">
-        <v>-0.17511495759838799</v>
+        <v>-0.28779432167835289</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -4012,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -4029,22 +4381,22 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="E18">
         <v>345</v>
       </c>
       <c r="F18">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H18">
-        <v>1.0342365</v>
+        <v>0.97494999999999998</v>
       </c>
       <c r="I18">
-        <v>-0.19401840928722841</v>
+        <v>-0.30764569659053648</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4053,10 +4405,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -4070,22 +4422,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="E19">
         <v>345</v>
       </c>
       <c r="F19">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G19">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H19">
-        <v>1.0315726000000001</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="I19">
-        <v>-0.20919809629718369</v>
+        <v>-0.32616887594195232</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4094,10 +4446,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -4111,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="E20">
         <v>345</v>
       </c>
       <c r="F20">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G20">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H20">
-        <v>1.0501068</v>
+        <v>1.0295799999999999</v>
       </c>
       <c r="I20">
-        <v>-9.4423584877917938E-2</v>
+        <v>-0.20383874866966981</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -4135,10 +4487,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -4152,22 +4504,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="E21">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="F21">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G21">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H21">
-        <v>0.99101054</v>
+        <v>0.97980999999999996</v>
       </c>
       <c r="I21">
-        <v>-0.1190520202005895</v>
+        <v>-0.22970452818422571</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -4176,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M21" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -4193,22 +4545,22 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="E22">
         <v>345</v>
       </c>
       <c r="F22">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G22">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H22">
-        <v>1.0323192000000001</v>
+        <v>0.99297999999999997</v>
       </c>
       <c r="I22">
-        <v>-0.13314673724367659</v>
+        <v>-0.24276657230615131</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -4217,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M22" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -4234,22 +4586,22 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="E23">
         <v>345</v>
       </c>
       <c r="F23">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G23">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H23">
-        <v>1.0501427000000001</v>
+        <v>1.02902</v>
       </c>
       <c r="I23">
-        <v>-5.5555922740752647E-2</v>
+        <v>-0.16149880634553929</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -4258,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -4275,22 +4627,22 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>317</v>
       </c>
       <c r="E24">
         <v>345</v>
       </c>
       <c r="F24">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G24">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H24">
-        <v>1.0451451</v>
+        <v>1.02329</v>
       </c>
       <c r="I24">
-        <v>-5.9014404354651537E-2</v>
+        <v>-0.16508371262913571</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4299,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -4316,22 +4668,22 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>318</v>
       </c>
       <c r="E25">
         <v>345</v>
       </c>
       <c r="F25">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G25">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H25">
-        <v>1.038001</v>
+        <v>0.98714000000000002</v>
       </c>
       <c r="I25">
-        <v>-0.1730277270725743</v>
+        <v>-0.28573134250249571</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4340,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -4357,22 +4709,22 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="E26">
         <v>345</v>
       </c>
       <c r="F26">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G26">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H26">
-        <v>1.0576827</v>
+        <v>1.0212399999999999</v>
       </c>
       <c r="I26">
-        <v>-0.14607071360446469</v>
+        <v>-0.23560374105596649</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -4381,10 +4733,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M26" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -4398,22 +4750,22 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="E27">
         <v>345</v>
       </c>
       <c r="F27">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G27">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H27">
-        <v>1.0525613</v>
+        <v>1.01034</v>
       </c>
       <c r="I27">
-        <v>-0.16473760685714819</v>
+        <v>-0.26605624584476362</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4422,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -4439,22 +4791,22 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>321</v>
       </c>
       <c r="E28">
         <v>345</v>
       </c>
       <c r="F28">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G28">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H28">
-        <v>1.0383449</v>
+        <v>0.98758000000000001</v>
       </c>
       <c r="I28">
-        <v>-0.19830696251205879</v>
+        <v>-0.30705926596186639</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -4463,10 +4815,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -4480,22 +4832,22 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="E29">
         <v>345</v>
       </c>
       <c r="F29">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G29">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H29">
-        <v>1.0503737</v>
+        <v>1.0201499999999999</v>
       </c>
       <c r="I29">
-        <v>-0.103469387280897</v>
+        <v>-0.20138132508286169</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4504,10 +4856,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -4521,22 +4873,22 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="E30">
         <v>345</v>
       </c>
       <c r="F30">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G30">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H30">
-        <v>1.0501149000000001</v>
+        <v>1.0242800000000001</v>
       </c>
       <c r="I30">
-        <v>-5.5324739918691981E-2</v>
+        <v>-0.1509378190417216</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4545,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -4562,22 +4914,22 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>324</v>
       </c>
       <c r="E31">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F31">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G31">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H31">
-        <v>1.0499000000000001</v>
+        <v>1.00458</v>
       </c>
       <c r="I31">
-        <v>-0.12863904920461211</v>
+        <v>-0.20414243595951681</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4586,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -4603,22 +4955,22 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="E32">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F32">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G32">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H32">
-        <v>0.98199999999999998</v>
+        <v>0.90644000000000002</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-0.1583205617776576</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4627,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M32" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -4644,22 +4996,22 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="E33">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G33">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H33">
-        <v>0.98409999999999997</v>
+        <v>0.97521999999999998</v>
       </c>
       <c r="I33">
-        <v>-3.288853063897563E-3</v>
+        <v>-0.10676353567374509</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4668,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -4685,22 +5037,22 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="E34">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G34">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H34">
         <v>0.99719999999999998</v>
       </c>
       <c r="I34">
-        <v>-3.3715301832291599E-3</v>
+        <v>-0.11195414486917631</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4709,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M34" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -4726,22 +5078,22 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="E35">
-        <v>345</v>
+        <v>15.5</v>
       </c>
       <c r="F35">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G35">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H35">
         <v>1.0123</v>
       </c>
       <c r="I35">
-        <v>-2.8468397041837391E-2</v>
+        <v>-0.1386559370954375</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4750,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M35" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -4767,22 +5119,22 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="E36">
-        <v>345</v>
+        <v>15.5</v>
       </c>
       <c r="F36">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G36">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H36">
-        <v>1.0494000000000001</v>
+        <v>1.0492999999999999</v>
       </c>
       <c r="I36">
-        <v>3.1005894589397651E-2</v>
+        <v>-7.3148494280334334E-2</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4791,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -4808,22 +5160,22 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="E37">
-        <v>345</v>
+        <v>12.5</v>
       </c>
       <c r="F37">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G37">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H37">
-        <v>1.0636000000000001</v>
+        <v>1.0634999999999999</v>
       </c>
       <c r="I37">
-        <v>7.7988945049254868E-2</v>
+        <v>-2.5518458993409088E-2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4832,10 +5184,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M37" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -4849,22 +5201,22 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="E38">
-        <v>345</v>
+        <v>12.5</v>
       </c>
       <c r="F38">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H38">
-        <v>1.0275000000000001</v>
+        <v>1.0278</v>
       </c>
       <c r="I38">
-        <v>-2.7626795785867221E-2</v>
+        <v>-0.113889715009638</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4873,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M38" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -4890,22 +5242,22 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="E39">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="F39">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G39">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H39">
         <v>1.0265</v>
       </c>
       <c r="I39">
-        <v>6.7942486044912861E-2</v>
+        <v>-2.5851816880540009E-2</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4914,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -4931,22 +5283,22 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="E40">
         <v>345</v>
       </c>
       <c r="F40">
-        <v>1.06</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G40">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H40">
         <v>1.03</v>
       </c>
       <c r="I40">
-        <v>-0.2536880748202609</v>
+        <v>-0.1912880860185785</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4955,10 +5307,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="M40" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4968,11 +5320,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27:I27"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4991,16 +5343,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -5017,25 +5369,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>345</v>
       </c>
       <c r="G2">
-        <v>0.97599999999999998</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0.442</v>
+        <v>2.5</v>
       </c>
       <c r="I2">
         <v>1.2</v>
@@ -5043,37 +5395,43 @@
       <c r="J2">
         <v>0.8</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>345</v>
       </c>
       <c r="G3">
-        <v>3.22</v>
+        <v>4.5</v>
       </c>
       <c r="H3">
-        <v>2.4E-2</v>
+        <v>1.84</v>
       </c>
       <c r="I3">
         <v>1.2</v>
       </c>
       <c r="J3">
         <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5081,31 +5439,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>345</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="H4">
-        <v>1.84</v>
+        <v>0.84</v>
       </c>
       <c r="I4">
         <v>1.2</v>
       </c>
       <c r="J4">
         <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5113,31 +5474,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>345</v>
       </c>
       <c r="G5">
-        <v>2.3380000000000001</v>
+        <v>5.22</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>1.766</v>
       </c>
       <c r="I5">
         <v>1.2</v>
       </c>
       <c r="J5">
         <v>0.8</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5145,31 +5509,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="G6">
-        <v>5.22</v>
+        <v>1.2</v>
       </c>
       <c r="H6">
-        <v>1.766</v>
+        <v>0.3</v>
       </c>
       <c r="I6">
         <v>1.2</v>
       </c>
       <c r="J6">
         <v>0.8</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -5177,31 +5544,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>345</v>
       </c>
       <c r="G7">
-        <v>6.5000000000000002E-2</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>-0.66599999999999993</v>
+        <v>1.53</v>
       </c>
       <c r="I7">
         <v>1.2</v>
       </c>
       <c r="J7">
         <v>0.8</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5209,31 +5579,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>345</v>
       </c>
       <c r="G8">
-        <v>8.5299999999999987E-2</v>
+        <v>3.29</v>
       </c>
       <c r="H8">
-        <v>0.88</v>
+        <v>0.32299999999999995</v>
       </c>
       <c r="I8">
         <v>1.2</v>
       </c>
       <c r="J8">
         <v>0.8</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5241,31 +5614,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9">
         <v>345</v>
       </c>
       <c r="G9">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="H9">
-        <v>1.53</v>
+        <v>0.3</v>
       </c>
       <c r="I9">
         <v>1.2</v>
       </c>
       <c r="J9">
         <v>0.8</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5273,31 +5649,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>345</v>
+        <v>138</v>
       </c>
       <c r="G10">
-        <v>3.29</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
-        <v>0.32300000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="I10">
         <v>1.2</v>
       </c>
       <c r="J10">
         <v>0.8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5305,31 +5684,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>345</v>
       </c>
       <c r="G11">
-        <v>1.58</v>
+        <v>2.74</v>
       </c>
       <c r="H11">
-        <v>0.3</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I11">
         <v>1.2</v>
       </c>
       <c r="J11">
         <v>0.8</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5337,31 +5719,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>345</v>
       </c>
       <c r="G12">
-        <v>6.8</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="H12">
-        <v>1.03</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="I12">
         <v>1.2</v>
       </c>
       <c r="J12">
         <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5369,31 +5754,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13">
         <v>345</v>
       </c>
       <c r="G13">
-        <v>2.74</v>
+        <v>3.0860000000000003</v>
       </c>
       <c r="H13">
-        <v>1.1499999999999999</v>
+        <v>-0.92200000000000004</v>
       </c>
       <c r="I13">
         <v>1.2</v>
       </c>
       <c r="J13">
         <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5401,31 +5789,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>345</v>
       </c>
       <c r="G14">
-        <v>2.4750000000000001</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H14">
-        <v>0.84599999999999997</v>
+        <v>0.47200000000000003</v>
       </c>
       <c r="I14">
         <v>1.2</v>
       </c>
       <c r="J14">
         <v>0.8</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5433,31 +5824,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>345</v>
       </c>
       <c r="G15">
-        <v>3.0859999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="H15">
-        <v>-0.92200000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="I15">
         <v>1.2</v>
       </c>
       <c r="J15">
         <v>0.8</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5465,25 +5859,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>345</v>
       </c>
       <c r="G16">
-        <v>2.2400000000000002</v>
+        <v>2.81</v>
       </c>
       <c r="H16">
-        <v>0.47199999999999998</v>
+        <v>0.755</v>
       </c>
       <c r="I16">
         <v>1.2</v>
@@ -5491,31 +5885,34 @@
       <c r="J16">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>345</v>
       </c>
       <c r="G17">
-        <v>1.39</v>
+        <v>2.06</v>
       </c>
       <c r="H17">
-        <v>0.17</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="I17">
         <v>1.2</v>
@@ -5523,31 +5920,34 @@
       <c r="J17">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E18">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>345</v>
       </c>
       <c r="G18">
-        <v>2.81</v>
+        <v>2.835</v>
       </c>
       <c r="H18">
-        <v>0.755</v>
+        <v>1.2690000000000001</v>
       </c>
       <c r="I18">
         <v>1.2</v>
@@ -5555,31 +5955,34 @@
       <c r="J18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F19">
-        <v>345</v>
+        <v>34.5</v>
       </c>
       <c r="G19">
-        <v>2.06</v>
+        <v>0.8</v>
       </c>
       <c r="H19">
-        <v>0.27600000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="I19">
         <v>1.2</v>
@@ -5587,31 +5990,34 @@
       <c r="J19">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F20">
         <v>345</v>
       </c>
       <c r="G20">
-        <v>2.835</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>0.26900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="I20">
         <v>1.2</v>
@@ -5619,69 +6025,8 @@
       <c r="J20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>345</v>
-      </c>
-      <c r="G21">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="H21">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="I21">
-        <v>1.2</v>
-      </c>
-      <c r="J21">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22">
-        <v>39</v>
-      </c>
-      <c r="F22">
-        <v>345</v>
-      </c>
-      <c r="G22">
-        <v>11.04</v>
-      </c>
-      <c r="H22">
-        <v>2.5</v>
-      </c>
-      <c r="I22">
-        <v>1.2</v>
-      </c>
-      <c r="J22">
-        <v>0.8</v>
+      <c r="K20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5690,12 +6035,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView zoomScale="168" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>345</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>6.5</v>
+      </c>
+      <c r="J2">
+        <v>1.6176200000000001</v>
+      </c>
+      <c r="K2">
+        <v>10.4</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1.4</v>
+      </c>
+      <c r="O2">
+        <v>1.0499000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1.4</v>
+      </c>
+      <c r="Q2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>2.5</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.3</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>99</v>
+      </c>
+      <c r="AC2">
+        <v>99</v>
+      </c>
+      <c r="AD2">
+        <v>299</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>6.5</v>
+      </c>
+      <c r="J3">
+        <v>2.0696500000000002</v>
+      </c>
+      <c r="K3">
+        <v>7.25</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>1.5</v>
+      </c>
+      <c r="O3">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="P3">
+        <v>1.4</v>
+      </c>
+      <c r="Q3">
+        <v>0.6</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.3</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>99</v>
+      </c>
+      <c r="AC3">
+        <v>99</v>
+      </c>
+      <c r="AD3">
+        <v>299</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>345</v>
+      </c>
+      <c r="G4">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>33</v>
+      </c>
+      <c r="I4">
+        <v>6.5</v>
+      </c>
+      <c r="J4">
+        <v>1.0829299999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.52</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>0.6</v>
+      </c>
+      <c r="R4">
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.3</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>99</v>
+      </c>
+      <c r="AC4">
+        <v>99</v>
+      </c>
+      <c r="AD4">
+        <v>299</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>345</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>1.6668799999999999</v>
+      </c>
+      <c r="K5">
+        <v>5.08</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1.67</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.0123</v>
+      </c>
+      <c r="P5">
+        <v>1.4</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>99</v>
+      </c>
+      <c r="AC5">
+        <v>99</v>
+      </c>
+      <c r="AD5">
+        <v>299</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>345</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <v>6.6</v>
+      </c>
+      <c r="J6">
+        <v>2.1066099999999999</v>
+      </c>
+      <c r="K6">
+        <v>6.87</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>0.6</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0.3</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>99</v>
+      </c>
+      <c r="AC6">
+        <v>99</v>
+      </c>
+      <c r="AD6">
+        <v>299</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>345</v>
+      </c>
+      <c r="G7">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>36</v>
+      </c>
+      <c r="I7">
+        <v>5.6</v>
+      </c>
+      <c r="J7">
+        <v>1.0016499999999999</v>
+      </c>
+      <c r="K7">
+        <v>5.8</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.0636000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.6</v>
+      </c>
+      <c r="R7">
+        <v>0.5</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>99</v>
+      </c>
+      <c r="AC7">
+        <v>99</v>
+      </c>
+      <c r="AD7">
+        <v>299</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>345</v>
+      </c>
+      <c r="G8">
+        <v>36</v>
+      </c>
+      <c r="H8">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>5.4</v>
+      </c>
+      <c r="J8">
+        <v>-1.36945E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.64</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.5</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.0275000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.4</v>
+      </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.3</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>99</v>
+      </c>
+      <c r="AC8">
+        <v>99</v>
+      </c>
+      <c r="AD8">
+        <v>299</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>345</v>
+      </c>
+      <c r="G9">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>6.5</v>
+      </c>
+      <c r="J9">
+        <v>0.21732699999999999</v>
+      </c>
+      <c r="K9">
+        <v>8.65</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>-1.5</v>
+      </c>
+      <c r="O9">
+        <v>1.0265</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>0.6</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.3</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>99</v>
+      </c>
+      <c r="AC9">
+        <v>99</v>
+      </c>
+      <c r="AD9">
+        <v>299</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+      <c r="H10">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>6.5</v>
+      </c>
+      <c r="J10">
+        <v>0.78467399999999998</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
+        <v>0.6</v>
+      </c>
+      <c r="R10">
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.3</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>99</v>
+      </c>
+      <c r="AC10">
+        <v>99</v>
+      </c>
+      <c r="AD10">
+        <v>299</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5714,34 +7086,34 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>6</v>
@@ -5753,55 +7125,55 @@
         <v>5</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -5809,25 +7181,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="E2">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="F2">
         <v>345</v>
       </c>
       <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <v>6.7787100000000002</v>
@@ -5839,7 +7208,7 @@
         <v>15</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -5909,1033 +7278,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AG10"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="168" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2:S5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2">
-        <v>1040</v>
-      </c>
-      <c r="F2">
-        <v>345</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>6.5</v>
-      </c>
-      <c r="J2">
-        <v>1.6176200000000001</v>
-      </c>
-      <c r="K2">
-        <v>10.4</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1.4</v>
-      </c>
-      <c r="O2">
-        <v>1.0499000000000001</v>
-      </c>
-      <c r="P2">
-        <v>1.4</v>
-      </c>
-      <c r="Q2">
-        <v>0.6</v>
-      </c>
-      <c r="R2">
-        <v>2.5</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.3</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>99</v>
-      </c>
-      <c r="AC2">
-        <v>99</v>
-      </c>
-      <c r="AD2">
-        <v>299</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3">
-        <v>725</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
-      </c>
-      <c r="G3">
-        <v>32</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-      <c r="J3">
-        <v>2.0696500000000002</v>
-      </c>
-      <c r="K3">
-        <v>7.25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="P3">
-        <v>1.4</v>
-      </c>
-      <c r="Q3">
-        <v>0.6</v>
-      </c>
-      <c r="R3">
-        <v>0.5</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.3</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>99</v>
-      </c>
-      <c r="AC3">
-        <v>99</v>
-      </c>
-      <c r="AD3">
-        <v>299</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>322</v>
-      </c>
-      <c r="E4">
-        <v>652</v>
-      </c>
-      <c r="F4">
-        <v>345</v>
-      </c>
-      <c r="G4">
-        <v>33</v>
-      </c>
-      <c r="H4">
-        <v>33</v>
-      </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
-      <c r="J4">
-        <v>1.0829299999999999</v>
-      </c>
-      <c r="K4">
-        <v>6.52</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.99719999999999998</v>
-      </c>
-      <c r="P4">
-        <v>1.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.6</v>
-      </c>
-      <c r="R4">
-        <v>0.5</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.3</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>99</v>
-      </c>
-      <c r="AC4">
-        <v>99</v>
-      </c>
-      <c r="AD4">
-        <v>299</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>323</v>
-      </c>
-      <c r="E5">
-        <v>508</v>
-      </c>
-      <c r="F5">
-        <v>345</v>
-      </c>
-      <c r="G5">
-        <v>34</v>
-      </c>
-      <c r="H5">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>1.6668799999999999</v>
-      </c>
-      <c r="K5">
-        <v>5.08</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1.67</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1.0123</v>
-      </c>
-      <c r="P5">
-        <v>1.4</v>
-      </c>
-      <c r="Q5">
-        <v>0.6</v>
-      </c>
-      <c r="R5">
-        <v>0.5</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0.3</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>99</v>
-      </c>
-      <c r="AC5">
-        <v>99</v>
-      </c>
-      <c r="AD5">
-        <v>299</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6">
-        <v>687</v>
-      </c>
-      <c r="F6">
-        <v>345</v>
-      </c>
-      <c r="G6">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>6.6</v>
-      </c>
-      <c r="J6">
-        <v>2.1066099999999999</v>
-      </c>
-      <c r="K6">
-        <v>6.87</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.6</v>
-      </c>
-      <c r="R6">
-        <v>0.5</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0.3</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>99</v>
-      </c>
-      <c r="AC6">
-        <v>99</v>
-      </c>
-      <c r="AD6">
-        <v>299</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7">
-        <v>580</v>
-      </c>
-      <c r="F7">
-        <v>345</v>
-      </c>
-      <c r="G7">
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <v>36</v>
-      </c>
-      <c r="I7">
-        <v>5.6</v>
-      </c>
-      <c r="J7">
-        <v>1.0016499999999999</v>
-      </c>
-      <c r="K7">
-        <v>5.8</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1.0636000000000001</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.6</v>
-      </c>
-      <c r="R7">
-        <v>0.5</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0.3</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>99</v>
-      </c>
-      <c r="AC7">
-        <v>99</v>
-      </c>
-      <c r="AD7">
-        <v>299</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E8">
-        <v>564</v>
-      </c>
-      <c r="F8">
-        <v>345</v>
-      </c>
-      <c r="G8">
-        <v>37</v>
-      </c>
-      <c r="H8">
-        <v>37</v>
-      </c>
-      <c r="I8">
-        <v>5.4</v>
-      </c>
-      <c r="J8">
-        <v>-1.36945E-2</v>
-      </c>
-      <c r="K8">
-        <v>5.64</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1.0275000000000001</v>
-      </c>
-      <c r="P8">
-        <v>1.4</v>
-      </c>
-      <c r="Q8">
-        <v>0.6</v>
-      </c>
-      <c r="R8">
-        <v>0.5</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0.3</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>99</v>
-      </c>
-      <c r="AC8">
-        <v>99</v>
-      </c>
-      <c r="AD8">
-        <v>299</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>327</v>
-      </c>
-      <c r="E9">
-        <v>865</v>
-      </c>
-      <c r="F9">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>38</v>
-      </c>
-      <c r="H9">
-        <v>38</v>
-      </c>
-      <c r="I9">
-        <v>6.5</v>
-      </c>
-      <c r="J9">
-        <v>0.21732699999999999</v>
-      </c>
-      <c r="K9">
-        <v>8.65</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>-1.5</v>
-      </c>
-      <c r="O9">
-        <v>1.0265</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>0.6</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>0.5</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0.3</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>99</v>
-      </c>
-      <c r="AC9">
-        <v>99</v>
-      </c>
-      <c r="AD9">
-        <v>299</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E10">
-        <v>1100</v>
-      </c>
-      <c r="F10">
-        <v>345</v>
-      </c>
-      <c r="G10">
-        <v>39</v>
-      </c>
-      <c r="H10">
-        <v>39</v>
-      </c>
-      <c r="I10">
-        <v>6.5</v>
-      </c>
-      <c r="J10">
-        <v>0.78467399999999998</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
-      </c>
-      <c r="P10">
-        <v>1.4</v>
-      </c>
-      <c r="Q10">
-        <v>0.6</v>
-      </c>
-      <c r="R10">
-        <v>3</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0.3</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>99</v>
-      </c>
-      <c r="AC10">
-        <v>99</v>
-      </c>
-      <c r="AD10">
-        <v>299</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6965,64 +7307,64 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>12</v>
@@ -7034,10 +7376,10 @@
         <v>9</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -7045,13 +7387,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>125</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -7125,13 +7467,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7205,13 +7547,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -7285,13 +7627,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -7365,13 +7707,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -7445,13 +7787,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -7525,13 +7867,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -7605,13 +7947,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -7685,13 +8027,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="E10">
         <v>4</v>
@@ -7765,13 +8107,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -7845,13 +8187,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -7925,13 +8267,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="E13">
         <v>6</v>
@@ -8005,13 +8347,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>6</v>
@@ -8085,13 +8427,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="E15">
         <v>6</v>
@@ -8165,13 +8507,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -8245,13 +8587,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>140</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -8325,13 +8667,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -8405,13 +8747,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -8485,13 +8827,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -8565,13 +8907,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -8645,13 +8987,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -8725,13 +9067,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -8805,13 +9147,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="E24">
         <v>13</v>
@@ -8885,13 +9227,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E25">
         <v>14</v>
@@ -8965,13 +9307,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E26">
         <v>15</v>
@@ -9045,13 +9387,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="E27">
         <v>16</v>
@@ -9125,13 +9467,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="E28">
         <v>16</v>
@@ -9205,13 +9547,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="E29">
         <v>16</v>
@@ -9285,13 +9627,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="E30">
         <v>16</v>
@@ -9365,13 +9707,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="E31">
         <v>17</v>
@@ -9445,13 +9787,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="E32">
         <v>17</v>
@@ -9525,13 +9867,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="E33">
         <v>19</v>
@@ -9605,13 +9947,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="E34">
         <v>19</v>
@@ -9685,13 +10027,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="E35">
         <v>20</v>
@@ -9765,13 +10107,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="E36">
         <v>21</v>
@@ -9845,13 +10187,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E37">
         <v>22</v>
@@ -9925,13 +10267,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <v>22</v>
@@ -10005,13 +10347,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E39">
         <v>23</v>
@@ -10085,13 +10427,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>23</v>
@@ -10165,13 +10507,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E41">
         <v>25</v>
@@ -10245,13 +10587,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="E42">
         <v>25</v>
@@ -10325,13 +10667,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E43">
         <v>26</v>
@@ -10405,13 +10747,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="E44">
         <v>26</v>
@@ -10485,13 +10827,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E45">
         <v>26</v>
@@ -10565,13 +10907,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E46">
         <v>28</v>
@@ -10645,13 +10987,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="E47">
         <v>29</v>
@@ -10751,16 +11093,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -10768,17 +11110,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10809,34 +11151,34 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10845,9 +11187,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView zoomScale="185" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10866,25 +11208,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -10892,16 +11234,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>456</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -10927,16 +11269,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>457</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -10962,16 +11304,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>242</v>
+        <v>458</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -10997,16 +11339,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>459</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -11032,16 +11374,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>460</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -11067,16 +11409,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>461</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>230</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -11102,16 +11444,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>462</v>
       </c>
       <c r="E8" t="s">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -11137,16 +11479,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>247</v>
+        <v>463</v>
       </c>
       <c r="E9" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -11172,16 +11514,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>233</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -11207,16 +11549,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>465</v>
       </c>
       <c r="E11" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -11238,7 +11580,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE081B73-8560-CB44-B27D-67AAF4BA174C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B54CF-92E6-1844-B920-D8352410805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="496">
   <si>
     <t>idx</t>
   </si>
@@ -1531,6 +1531,12 @@
   </si>
   <si>
     <t>NSRC 10</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2043,18 +2049,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2067,8 +2074,11 @@
       <c r="D1" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -2081,8 +2091,11 @@
       <c r="D2" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -2095,8 +2108,11 @@
       <c r="D3" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -2109,8 +2125,11 @@
       <c r="D4" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -2123,8 +2142,11 @@
       <c r="D5" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2137,8 +2159,11 @@
       <c r="D6" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -2151,8 +2176,11 @@
       <c r="D7" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -2165,8 +2193,11 @@
       <c r="D8" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -2179,8 +2210,11 @@
       <c r="D9" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -2193,8 +2227,11 @@
       <c r="D10" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -2207,8 +2244,11 @@
       <c r="D11" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2221,8 +2261,11 @@
       <c r="D12" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2235,8 +2278,11 @@
       <c r="D13" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -2249,8 +2295,11 @@
       <c r="D14" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -2263,8 +2312,11 @@
       <c r="D15" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -2277,8 +2329,11 @@
       <c r="D16" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -2291,8 +2346,11 @@
       <c r="D17" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="D18" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="D19" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2333,8 +2397,11 @@
       <c r="D20" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -2347,8 +2414,11 @@
       <c r="D21" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -2361,8 +2431,11 @@
       <c r="D22" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2375,8 +2448,11 @@
       <c r="D23" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -2389,8 +2465,11 @@
       <c r="D24" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -2402,6 +2481,9 @@
       </c>
       <c r="D25" s="8" t="s">
         <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B54CF-92E6-1844-B920-D8352410805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB796B-35CE-794D-9077-FB1B7B8BE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="Region" sheetId="8" r:id="rId8"/>
     <sheet name="GCost" sheetId="6" r:id="rId9"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId10"/>
-    <sheet name="UCTSlot" sheetId="13" r:id="rId11"/>
-    <sheet name="SFR" sheetId="9" r:id="rId12"/>
-    <sheet name="SFRCost" sheetId="10" r:id="rId13"/>
-    <sheet name="SR" sheetId="18" r:id="rId14"/>
-    <sheet name="SRCost" sheetId="20" r:id="rId15"/>
-    <sheet name="NSR" sheetId="19" r:id="rId16"/>
-    <sheet name="NSRCost" sheetId="21" r:id="rId17"/>
+    <sheet name="Shunt" sheetId="22" r:id="rId11"/>
+    <sheet name="UCTSlot" sheetId="13" r:id="rId12"/>
+    <sheet name="SFR" sheetId="9" r:id="rId13"/>
+    <sheet name="SFRCost" sheetId="10" r:id="rId14"/>
+    <sheet name="SR" sheetId="18" r:id="rId15"/>
+    <sheet name="SRCost" sheetId="20" r:id="rId16"/>
+    <sheet name="NSR" sheetId="19" r:id="rId17"/>
+    <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="541">
   <si>
     <t>idx</t>
   </si>
@@ -1537,6 +1538,141 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>Shunt_1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Shunt_2</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>4.36086385</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>1.035534</t>
+  </si>
+  <si>
+    <t>836</t>
+  </si>
+  <si>
+    <t>6.45999998</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.013246</t>
+  </si>
+  <si>
+    <t>843.7</t>
+  </si>
+  <si>
+    <t>7.24999998</t>
+  </si>
+  <si>
+    <t>1.020528</t>
+  </si>
+  <si>
+    <t>1174.8</t>
+  </si>
+  <si>
+    <t>6.51999998</t>
+  </si>
+  <si>
+    <t>1.5806</t>
+  </si>
+  <si>
+    <t>1.01343</t>
+  </si>
+  <si>
+    <t>1080.2</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>1.5854</t>
+  </si>
+  <si>
+    <t>1.019109</t>
+  </si>
+  <si>
+    <t>1085.7</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>2.5777</t>
+  </si>
+  <si>
+    <t>1.06</t>
+  </si>
+  <si>
+    <t>1025.2</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>0.7876</t>
+  </si>
+  <si>
+    <t>970.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>1.013996</t>
+  </si>
+  <si>
+    <t>1684.1</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>1.428</t>
+  </si>
+  <si>
+    <t>1.052803</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>5.7417</t>
+  </si>
+  <si>
+    <t>0.5617</t>
+  </si>
+  <si>
+    <t>1.03</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1678,6 +1814,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2051,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2493,6 +2632,117 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE8D1C-05FB-B141-9D6A-355DC8C756E6}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G2" t="s">
+        <v>498</v>
+      </c>
+      <c r="H2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" t="s">
+        <v>497</v>
+      </c>
+      <c r="G3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D48AD92-083E-E846-8F62-C9A43521848F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2862,7 +3112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F77866-C777-0B41-8C14-27D8C9A5BF9B}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -2947,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE302B1E-1C21-5545-8C07-A8652D0B6F47}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -3183,7 +3433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F41B66-3F5A-A846-A642-21ADD81835C9}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3259,7 +3509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F8382B-5372-9443-A9F0-6DD466EDEE98}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3462,7 +3712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3538,7 +3788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -5406,7 +5656,7 @@
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5466,7 +5716,7 @@
         <v>345</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="H2">
         <v>2.5</v>
@@ -5501,7 +5751,7 @@
         <v>345</v>
       </c>
       <c r="G3">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
         <v>1.84</v>
@@ -5536,7 +5786,7 @@
         <v>345</v>
       </c>
       <c r="G4">
-        <v>2.3380000000000001</v>
+        <v>1.8704000000000001</v>
       </c>
       <c r="H4">
         <v>0.84</v>
@@ -5571,7 +5821,7 @@
         <v>345</v>
       </c>
       <c r="G5">
-        <v>5.22</v>
+        <v>4.1760000000000002</v>
       </c>
       <c r="H5">
         <v>1.766</v>
@@ -5606,7 +5856,7 @@
         <v>138</v>
       </c>
       <c r="G6">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="H6">
         <v>0.3</v>
@@ -5641,7 +5891,7 @@
         <v>345</v>
       </c>
       <c r="G7">
-        <v>3.2</v>
+        <v>2.5600000000000005</v>
       </c>
       <c r="H7">
         <v>1.53</v>
@@ -5676,7 +5926,7 @@
         <v>345</v>
       </c>
       <c r="G8">
-        <v>3.29</v>
+        <v>2.6320000000000001</v>
       </c>
       <c r="H8">
         <v>0.32299999999999995</v>
@@ -5711,7 +5961,7 @@
         <v>345</v>
       </c>
       <c r="G9">
-        <v>1.58</v>
+        <v>1.2640000000000002</v>
       </c>
       <c r="H9">
         <v>0.3</v>
@@ -5746,7 +5996,7 @@
         <v>138</v>
       </c>
       <c r="G10">
-        <v>6.8</v>
+        <v>5.44</v>
       </c>
       <c r="H10">
         <v>1.03</v>
@@ -5781,7 +6031,7 @@
         <v>345</v>
       </c>
       <c r="G11">
-        <v>2.74</v>
+        <v>2.1920000000000002</v>
       </c>
       <c r="H11">
         <v>1.1499999999999999</v>
@@ -5816,7 +6066,7 @@
         <v>345</v>
       </c>
       <c r="G12">
-        <v>2.4750000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="H12">
         <v>0.84599999999999997</v>
@@ -5851,7 +6101,7 @@
         <v>345</v>
       </c>
       <c r="G13">
-        <v>3.0860000000000003</v>
+        <v>2.4688000000000003</v>
       </c>
       <c r="H13">
         <v>-0.92200000000000004</v>
@@ -5886,7 +6136,7 @@
         <v>345</v>
       </c>
       <c r="G14">
-        <v>2.2400000000000002</v>
+        <v>1.7920000000000003</v>
       </c>
       <c r="H14">
         <v>0.47200000000000003</v>
@@ -5921,7 +6171,7 @@
         <v>345</v>
       </c>
       <c r="G15">
-        <v>1.39</v>
+        <v>1.1119999999999999</v>
       </c>
       <c r="H15">
         <v>0.17</v>
@@ -5956,7 +6206,7 @@
         <v>345</v>
       </c>
       <c r="G16">
-        <v>2.81</v>
+        <v>2.2480000000000002</v>
       </c>
       <c r="H16">
         <v>0.755</v>
@@ -5991,7 +6241,7 @@
         <v>345</v>
       </c>
       <c r="G17">
-        <v>2.06</v>
+        <v>1.6480000000000001</v>
       </c>
       <c r="H17">
         <v>0.27600000000000002</v>
@@ -6026,7 +6276,7 @@
         <v>345</v>
       </c>
       <c r="G18">
-        <v>2.835</v>
+        <v>2.2680000000000002</v>
       </c>
       <c r="H18">
         <v>1.2690000000000001</v>
@@ -6061,7 +6311,7 @@
         <v>34.5</v>
       </c>
       <c r="G19">
-        <v>0.8</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="H19">
         <v>0.4</v>
@@ -6096,7 +6346,7 @@
         <v>345</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H20">
         <v>2.5</v>
@@ -6120,9 +6370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6241,11 +6491,11 @@
       <c r="D2" t="s">
         <v>336</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>345</v>
+      <c r="E2" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -6253,26 +6503,26 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2">
-        <v>6.5</v>
-      </c>
-      <c r="J2">
-        <v>1.6176200000000001</v>
-      </c>
-      <c r="K2">
-        <v>10.4</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1.4</v>
-      </c>
-      <c r="O2">
-        <v>1.0499000000000001</v>
+      <c r="I2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="2">
+        <v>99</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>505</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -6342,11 +6592,11 @@
       <c r="D3" t="s">
         <v>337</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>345</v>
+      <c r="E3" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="G3">
         <v>31</v>
@@ -6354,26 +6604,26 @@
       <c r="H3">
         <v>32</v>
       </c>
-      <c r="I3">
-        <v>6.5</v>
-      </c>
-      <c r="J3">
-        <v>2.0696500000000002</v>
-      </c>
-      <c r="K3">
-        <v>7.25</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>1.5</v>
-      </c>
-      <c r="O3">
-        <v>0.98409999999999997</v>
+      <c r="I3" t="s">
+        <v>507</v>
+      </c>
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>508</v>
+      </c>
+      <c r="M3" s="2">
+        <v>99</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>509</v>
       </c>
       <c r="P3">
         <v>1.4</v>
@@ -6443,11 +6693,11 @@
       <c r="D4" t="s">
         <v>338</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>345</v>
+      <c r="E4" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="G4">
         <v>32</v>
@@ -6455,26 +6705,26 @@
       <c r="H4">
         <v>33</v>
       </c>
-      <c r="I4">
-        <v>6.5</v>
-      </c>
-      <c r="J4">
-        <v>1.0829299999999999</v>
-      </c>
-      <c r="K4">
-        <v>6.52</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0.99719999999999998</v>
+      <c r="I4" t="s">
+        <v>511</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="2">
+        <v>99</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O4" t="s">
+        <v>512</v>
       </c>
       <c r="P4">
         <v>1.4</v>
@@ -6544,11 +6794,11 @@
       <c r="D5" t="s">
         <v>339</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>345</v>
+      <c r="E5" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>218</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -6556,26 +6806,26 @@
       <c r="H5">
         <v>34</v>
       </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>1.6668799999999999</v>
-      </c>
-      <c r="K5">
-        <v>5.08</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1.67</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1.0123</v>
+      <c r="I5" t="s">
+        <v>514</v>
+      </c>
+      <c r="J5" t="s">
+        <v>515</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M5" s="2">
+        <v>99</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O5" t="s">
+        <v>516</v>
       </c>
       <c r="P5">
         <v>1.4</v>
@@ -6645,11 +6895,11 @@
       <c r="D6" t="s">
         <v>340</v>
       </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>345</v>
+      <c r="E6" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>518</v>
       </c>
       <c r="G6">
         <v>34</v>
@@ -6657,26 +6907,26 @@
       <c r="H6">
         <v>35</v>
       </c>
-      <c r="I6">
-        <v>6.6</v>
-      </c>
-      <c r="J6">
-        <v>2.1066099999999999</v>
-      </c>
-      <c r="K6">
-        <v>6.87</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="N6">
-        <v>-1</v>
-      </c>
-      <c r="O6">
-        <v>1.0494000000000001</v>
+      <c r="I6" t="s">
+        <v>519</v>
+      </c>
+      <c r="J6" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="2">
+        <v>99</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O6" t="s">
+        <v>521</v>
       </c>
       <c r="P6">
         <v>1.4</v>
@@ -6746,11 +6996,11 @@
       <c r="D7" t="s">
         <v>341</v>
       </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>345</v>
+      <c r="E7" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>518</v>
       </c>
       <c r="G7">
         <v>35</v>
@@ -6758,26 +7008,26 @@
       <c r="H7">
         <v>36</v>
       </c>
-      <c r="I7">
-        <v>5.6</v>
-      </c>
-      <c r="J7">
-        <v>1.0016499999999999</v>
-      </c>
-      <c r="K7">
-        <v>5.8</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2.4</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1.0636000000000001</v>
+      <c r="I7" t="s">
+        <v>523</v>
+      </c>
+      <c r="J7" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" s="2">
+        <v>99</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>525</v>
       </c>
       <c r="P7">
         <v>1.4</v>
@@ -6847,11 +7097,11 @@
       <c r="D8" t="s">
         <v>342</v>
       </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>345</v>
+      <c r="E8" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>527</v>
       </c>
       <c r="G8">
         <v>36</v>
@@ -6859,26 +7109,26 @@
       <c r="H8">
         <v>37</v>
       </c>
-      <c r="I8">
-        <v>5.4</v>
-      </c>
-      <c r="J8">
-        <v>-1.36945E-2</v>
-      </c>
-      <c r="K8">
-        <v>5.64</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.5</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1.0275000000000001</v>
+      <c r="I8" t="s">
+        <v>528</v>
+      </c>
+      <c r="J8" t="s">
+        <v>529</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" s="2">
+        <v>99</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>525</v>
       </c>
       <c r="P8">
         <v>1.4</v>
@@ -6948,11 +7198,11 @@
       <c r="D9" t="s">
         <v>343</v>
       </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>345</v>
+      <c r="E9" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>527</v>
       </c>
       <c r="G9">
         <v>37</v>
@@ -6960,26 +7210,26 @@
       <c r="H9">
         <v>38</v>
       </c>
-      <c r="I9">
-        <v>6.5</v>
-      </c>
-      <c r="J9">
-        <v>0.21732699999999999</v>
-      </c>
-      <c r="K9">
-        <v>8.65</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>-1.5</v>
-      </c>
-      <c r="O9">
-        <v>1.0265</v>
+      <c r="I9" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" t="s">
+        <v>198</v>
+      </c>
+      <c r="M9" s="2">
+        <v>99</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>532</v>
       </c>
       <c r="P9">
         <v>1.4</v>
@@ -7049,11 +7299,11 @@
       <c r="D10" t="s">
         <v>344</v>
       </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>345</v>
+      <c r="E10" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="G10">
         <v>38</v>
@@ -7061,26 +7311,26 @@
       <c r="H10">
         <v>39</v>
       </c>
-      <c r="I10">
-        <v>6.5</v>
-      </c>
-      <c r="J10">
-        <v>0.78467399999999998</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>1.03</v>
+      <c r="I10" t="s">
+        <v>534</v>
+      </c>
+      <c r="J10" t="s">
+        <v>535</v>
+      </c>
+      <c r="K10" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="2">
+        <v>99</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>536</v>
       </c>
       <c r="P10">
         <v>1.4</v>
@@ -7149,7 +7399,7 @@
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7271,8 +7521,8 @@
       <c r="D2" t="s">
         <v>345</v>
       </c>
-      <c r="E2">
-        <v>100</v>
+      <c r="E2" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="F2">
         <v>345</v>
@@ -7280,26 +7530,26 @@
       <c r="G2">
         <v>39</v>
       </c>
-      <c r="I2">
-        <v>6.7787100000000002</v>
-      </c>
-      <c r="J2">
-        <v>2.2157399999999998</v>
-      </c>
-      <c r="K2">
-        <v>15</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>-1</v>
-      </c>
-      <c r="O2">
-        <v>0.98199999999999998</v>
+      <c r="I2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J2" t="s">
+        <v>539</v>
+      </c>
+      <c r="K2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="2">
+        <v>99</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-99</v>
+      </c>
+      <c r="O2" t="s">
+        <v>540</v>
       </c>
       <c r="P2">
         <v>1.4</v>
@@ -7370,7 +7620,7 @@
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB796B-35CE-794D-9077-FB1B7B8BE12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C336696-B6AE-2040-B713-B8265F704E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="SRCost" sheetId="20" r:id="rId16"/>
     <sheet name="NSR" sheetId="19" r:id="rId17"/>
     <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
+    <sheet name="DCost" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="582">
   <si>
     <t>idx</t>
   </si>
@@ -1673,6 +1674,129 @@
   </si>
   <si>
     <t>1.03</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
+  </si>
+  <si>
+    <t>ctrl</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1890,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1789,11 +1913,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1816,6 +1951,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3991,6 +4129,427 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90F9749-4D70-9441-86B0-B7259860DB4E}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>551</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>573</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>555</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>575</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>576</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>577</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>578</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>560</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>561</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>580</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
@@ -5652,16 +6211,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -5695,8 +6254,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5730,8 +6292,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5765,8 +6330,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5800,8 +6368,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5835,8 +6406,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5870,8 +6444,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5905,8 +6482,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5940,8 +6520,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5975,8 +6558,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6010,8 +6596,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6045,8 +6634,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6080,8 +6672,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6115,8 +6710,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6150,8 +6748,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6185,8 +6786,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6220,8 +6824,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6255,8 +6862,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6290,8 +6900,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6325,8 +6938,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6358,6 +6974,9 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
@@ -6370,7 +6989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C336696-B6AE-2040-B713-B8265F704E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E4575-EC57-0D4C-AF30-2C66C59A6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId5"/>
     <sheet name="Line" sheetId="5" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="Region" sheetId="8" r:id="rId8"/>
+    <sheet name="Zone" sheetId="8" r:id="rId8"/>
     <sheet name="GCost" sheetId="6" r:id="rId9"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId10"/>
     <sheet name="Shunt" sheetId="22" r:id="rId11"/>
@@ -1952,7 +1952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6213,7 +6213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
@@ -12080,7 +12080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced.xlsx
+++ b/ams/cases/ieee39/ieee39_uced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1E4575-EC57-0D4C-AF30-2C66C59A6820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765F3C6D-5829-8B4C-BDD4-BB47A03DC6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -1803,7 +1803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,6 +1881,13 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1928,7 +1935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1954,6 +1961,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3255,7 +3265,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3290,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3302,8 +3312,8 @@
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="G2" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3325,8 +3335,8 @@
       <c r="F3" s="2">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
+      <c r="G3" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3586,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3598,7 +3608,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3617,8 +3627,8 @@
       <c r="E2" s="6">
         <v>0.03</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3637,8 +3647,8 @@
       <c r="E3" s="6">
         <v>0.03</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3865,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3877,7 +3887,7 @@
         <v>234</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3896,8 +3906,8 @@
       <c r="E2" s="6">
         <v>0.05</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="14" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -3916,8 +3926,8 @@
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="14" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3930,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9484A1E6-40ED-8148-BBE3-6D006206561E}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12023,7 +12033,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12080,7 +12090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
